--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.675</v>
+        <v>28.674</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.42940380109997</v>
+        <v>29.4295382200359</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.42941254853422</v>
+        <v>29.42997175816569</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.42941385904081</v>
+        <v>29.4301087847713</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.42921098037947</v>
+        <v>29.42922857972513</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.42921598083542</v>
+        <v>29.4294597055329</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.42921896922174</v>
+        <v>29.42964473642294</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.42945778079959</v>
+        <v>29.42934698915348</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.42946194359528</v>
+        <v>29.42957277846234</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.42946488653412</v>
+        <v>29.42977619749717</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.42854741212652</v>
+        <v>29.42947310333848</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.42855362848736</v>
+        <v>29.42972940439654</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.42855509718638</v>
+        <v>29.42982529882057</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.42847692056908</v>
+        <v>29.42944124751874</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.42848786724806</v>
+        <v>29.42988109504591</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.42848947152088</v>
+        <v>29.43001632272823</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.42846065803972</v>
+        <v>29.42914043085846</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.42847619587717</v>
+        <v>29.42990303836827</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.4284755250325</v>
+        <v>29.43016846919009</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.42817886405469</v>
+        <v>29.42815245459768</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.42819059868339</v>
+        <v>29.42865527305834</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.42818958270772</v>
+        <v>29.42894113002982</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.42854130717031</v>
+        <v>29.42831393987936</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.42855061628785</v>
+        <v>29.42881416019819</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.42834623371369</v>
+        <v>29.42911251453486</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.4267803495108</v>
+        <v>29.42895462845988</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.42677617030531</v>
+        <v>29.42932556243512</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.42677633806599</v>
+        <v>29.42950609584553</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.42665964090785</v>
+        <v>29.4290509943813</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.42665863893657</v>
+        <v>29.42964857072243</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.42666228687693</v>
+        <v>29.42992198615572</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.42822316897258</v>
+        <v>29.42917719481361</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.42822481882159</v>
+        <v>29.4299411343837</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.42830749425237</v>
+        <v>29.43025081543151</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.42807775338252</v>
+        <v>29.42817989051735</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.42804861473464</v>
+        <v>29.42869853609085</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.42804341160986</v>
+        <v>29.429009103195</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.42841672624927</v>
+        <v>29.42835396685931</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.42839154951396</v>
+        <v>29.42886746847128</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.42835788647842</v>
+        <v>29.42918538407395</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.426751827373</v>
+        <v>29.42900249942981</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.42675750235361</v>
+        <v>29.42937807872964</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.42675905732301</v>
+        <v>29.42958283850119</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.42662105349391</v>
+        <v>29.42908693737382</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.42663775936704</v>
+        <v>29.42968926151</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.42659366630803</v>
+        <v>29.43000360194444</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.42952268165638</v>
+        <v>29.42875244518872</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.42886461176145</v>
+        <v>29.42928665328802</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.42886201279523</v>
+        <v>29.42942988296976</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.42862907767693</v>
+        <v>29.42832317231526</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.42863111177437</v>
+        <v>29.42862013397858</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.4286282695337</v>
+        <v>29.42880930727431</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.42894291160396</v>
+        <v>29.42848665880996</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.42893976311766</v>
+        <v>29.4287911794118</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.42893790833389</v>
+        <v>29.42899873770195</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.42780568294177</v>
+        <v>29.42857072193982</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.42778719415567</v>
+        <v>29.42888940073048</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.42778534447594</v>
+        <v>29.42898916447745</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.42770091820911</v>
+        <v>29.42855118145714</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.42771807852547</v>
+        <v>29.42909442502266</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.42771690853376</v>
+        <v>29.42923582424157</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.4276234282817</v>
+        <v>29.42888925073328</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.42793581634225</v>
+        <v>29.4298468403511</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.4279457769823</v>
+        <v>29.43018514856655</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.42779645947081</v>
+        <v>29.42787213712814</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.42777784651272</v>
+        <v>29.4285007696493</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.42777876158333</v>
+        <v>29.42884781805334</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.42824848464828</v>
+        <v>29.42805339903786</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.4281380971155</v>
+        <v>29.42865949672394</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.42814011906164</v>
+        <v>29.42902412304984</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.42614576008655</v>
+        <v>29.42880592671999</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.42626065128202</v>
+        <v>29.42930396113017</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.42625131254532</v>
+        <v>29.42952283280503</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.42609294100166</v>
+        <v>29.42887639444968</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.42613775321505</v>
+        <v>29.42968901924792</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.42612593810915</v>
+        <v>29.43002066956562</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.42748371617433</v>
+        <v>29.4292947485279</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.42743670350382</v>
+        <v>29.43026296247037</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.42743395564136</v>
+        <v>29.43066431382855</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.42710423497454</v>
+        <v>29.42823113020656</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.42708405505781</v>
+        <v>29.42888122629096</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.42707763453106</v>
+        <v>29.42925614720096</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.42763438609505</v>
+        <v>29.42843720204469</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.42755770457202</v>
+        <v>29.42906088826128</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.42755717486566</v>
+        <v>29.42944817982039</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.42559453441724</v>
+        <v>29.42917157588372</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.42573169277298</v>
+        <v>29.42967131265758</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.42572039038217</v>
+        <v>29.42992251907612</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.42554789937827</v>
+        <v>29.42919948319562</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.42559505755987</v>
+        <v>29.43000985462778</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.42558135758983</v>
+        <v>29.4303975046425</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.42899415595282</v>
+        <v>29.42875244518872</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.42954292841128</v>
+        <v>29.42928665328802</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.42967546117179</v>
+        <v>29.42942988296976</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.42958143389998</v>
+        <v>29.42832317231526</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.42956118196206</v>
+        <v>29.42862013397858</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.42954589514916</v>
+        <v>29.42880930727431</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.42968255013644</v>
+        <v>29.42848665880996</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.42965572849384</v>
+        <v>29.4287911794118</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.42938867467372</v>
+        <v>29.42899873770195</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.42840684983759</v>
+        <v>29.42857072193982</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.42841817503197</v>
+        <v>29.42888940073048</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.42841948121637</v>
+        <v>29.42898916447745</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.42832739265772</v>
+        <v>29.42855118145714</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.42834666460813</v>
+        <v>29.42909442502266</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.42827991534584</v>
+        <v>29.42923582424157</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.42842023357181</v>
+        <v>29.42888925073328</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.42844768142384</v>
+        <v>29.4298468403511</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.42864929624625</v>
+        <v>29.43018514856655</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.42852452241499</v>
+        <v>29.42787213712814</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.42848115074927</v>
+        <v>29.4285007696493</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.42845514686686</v>
+        <v>29.42884781805334</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.42869579064073</v>
+        <v>29.42805339903786</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.42864463039185</v>
+        <v>29.42865949672394</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.42811613471329</v>
+        <v>29.42902412304984</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.42667438303009</v>
+        <v>29.42880592671999</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.4267163647781</v>
+        <v>29.42930396113017</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.42672689130229</v>
+        <v>29.42952283280503</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.42651916473472</v>
+        <v>29.42887639444968</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.42659293522782</v>
+        <v>29.42968901924792</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.42661497940346</v>
+        <v>29.43002066956562</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.42743886262175</v>
+        <v>29.4292947485279</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.42750659241043</v>
+        <v>29.43026296247037</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.42751930900071</v>
+        <v>29.43066431382855</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.42728727202847</v>
+        <v>29.42823113020656</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.42732377500354</v>
+        <v>29.42888122629096</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.42732788737155</v>
+        <v>29.42925614720096</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.427701778689</v>
+        <v>29.42843720204469</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.42773193377947</v>
+        <v>29.42906088826128</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.42773701169098</v>
+        <v>29.42944817982039</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.42613099157371</v>
+        <v>29.42917157588372</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.42616834451874</v>
+        <v>29.42967131265758</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.42617923920506</v>
+        <v>29.42992251907612</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.42595453848195</v>
+        <v>29.42919948319562</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.42602646828447</v>
+        <v>29.43000985462778</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.42604764461091</v>
+        <v>29.4303975046425</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.42939156032283</v>
+        <v>29.42903284948409</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.42940338305643</v>
+        <v>29.42949399730264</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.42940379112509</v>
+        <v>29.42963494519754</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.42920992000929</v>
+        <v>29.42864435197304</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.4292170319937</v>
+        <v>29.42889102747614</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.42921919219455</v>
+        <v>29.42908111099226</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.42945396360568</v>
+        <v>29.42878417669234</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.42946013527481</v>
+        <v>29.42902731744346</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.42946212383799</v>
+        <v>29.42923651125858</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.42854375776013</v>
+        <v>29.42890254096021</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.42855306558977</v>
+        <v>29.4291752833387</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.42855361640495</v>
+        <v>29.4292739343653</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.42846759437126</v>
+        <v>29.42889462454142</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.42848410703572</v>
+        <v>29.42936232985273</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.42848417876917</v>
+        <v>29.42950145926719</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.42839798243408</v>
+        <v>29.42883592843635</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.42841665257371</v>
+        <v>29.42965362236918</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.42841142112875</v>
+        <v>29.42994162016887</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.42813200943132</v>
+        <v>29.42776068355887</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.42814454085786</v>
+        <v>29.42829979223478</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.4281391484204</v>
+        <v>29.42860628479373</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.42849294099739</v>
+        <v>29.42794078292289</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.42850166553239</v>
+        <v>29.42847401077861</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.42831989485702</v>
+        <v>29.42879557350879</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.42677877239043</v>
+        <v>29.42861490505008</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.42678028701809</v>
+        <v>29.4290177903028</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.42678231303778</v>
+        <v>29.42921148920194</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.42665800372002</v>
+        <v>29.42872323713839</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.42666715052909</v>
+        <v>29.42937382065547</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.42667267684734</v>
+        <v>29.42966723204021</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.42812295425298</v>
+        <v>29.42900779123319</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.42812273513905</v>
+        <v>29.42982998639796</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.4281703686257</v>
+        <v>29.43016774953878</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.4279241348252</v>
+        <v>29.42792769272551</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.4278904114456</v>
+        <v>29.42848469047197</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.42788409474153</v>
+        <v>29.4288170056423</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.42828216615277</v>
+        <v>29.42811958156426</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.42825281242741</v>
+        <v>29.42866773248547</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.42831894047903</v>
+        <v>29.42901003581465</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.42677074554613</v>
+        <v>29.42880016637867</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.42678290064414</v>
+        <v>29.42920804443754</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.42678665774319</v>
+        <v>29.42942808004663</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.42664370324645</v>
+        <v>29.42888629343512</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.42667209742453</v>
+        <v>29.4295418132834</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.42664014001283</v>
+        <v>29.42988001235109</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.4296736313294</v>
+        <v>29.42940057723098</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.42951486554096</v>
+        <v>29.42983927719989</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.42951015381482</v>
+        <v>29.42997327194152</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.42935301850726</v>
+        <v>29.42908002443301</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.42935458610984</v>
+        <v>29.42931637684546</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.42935231424956</v>
+        <v>29.42949946830505</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.42957447253391</v>
+        <v>29.42920073885649</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.42957494214212</v>
+        <v>29.42943191076383</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.42957315641763</v>
+        <v>29.42963307181211</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.42871860325691</v>
+        <v>29.42932501896801</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.42874132256329</v>
+        <v>29.42958388979196</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.42873958286569</v>
+        <v>29.42967980871618</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.42866948456231</v>
+        <v>29.42930152601759</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.42868007573466</v>
+        <v>29.42974499318251</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.42867860557837</v>
+        <v>29.42988072251292</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.42842481728209</v>
+        <v>29.42937729098621</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.42860272679983</v>
+        <v>29.43014449865004</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.42860281824369</v>
+        <v>29.43041277093436</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.4284424237615</v>
+        <v>29.42844566665823</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.42843187532663</v>
+        <v>29.42895314260581</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.42843039488896</v>
+        <v>29.42923950453031</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.42878967280459</v>
+        <v>29.42859148595304</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.42874041633931</v>
+        <v>29.42909650282272</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.42873996173476</v>
+        <v>29.42939636936817</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.42721591920088</v>
+        <v>29.42925186053149</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.42727571911213</v>
+        <v>29.42962736644859</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.42726856494306</v>
+        <v>29.42980805171836</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.42715230616725</v>
+        <v>29.42933308432535</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.42718084452439</v>
+        <v>29.42993824896281</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.42717174262503</v>
+        <v>29.43021183906598</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.42826899362659</v>
+        <v>29.42941036130465</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.42823865000265</v>
+        <v>29.43017737067417</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.42823332455153</v>
+        <v>29.43048969324038</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.42797753861944</v>
+        <v>29.4284668472701</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.42796975545297</v>
+        <v>29.42898935654576</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.42796314305276</v>
+        <v>29.42930023534885</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.42837944786768</v>
+        <v>29.42862437576098</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.42834236685235</v>
+        <v>29.42914151735959</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.42833921706543</v>
+        <v>29.42946075954614</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.42682474981184</v>
+        <v>29.42929548536546</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.42690310491391</v>
+        <v>29.42967522571384</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.42689403644888</v>
+        <v>29.42988029776382</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.42676724388663</v>
+        <v>29.42936642108315</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.42679713159835</v>
+        <v>29.42997570860071</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.4267854593804</v>
+        <v>29.43029059209745</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.4273778958474</v>
+        <v>29.4287601685893</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.42836989694905</v>
+        <v>29.42919376216596</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.4286003456868</v>
+        <v>29.42931193889748</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.42843916953361</v>
+        <v>29.42833878894204</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.42840497206965</v>
+        <v>29.42857207153706</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.4283766231149</v>
+        <v>29.42872528852693</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.42861165717299</v>
+        <v>29.42849012594266</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.42856538756462</v>
+        <v>29.42873164268048</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.42810218764777</v>
+        <v>29.42890359724044</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.42641260090697</v>
+        <v>29.42853477773896</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.42643328933866</v>
+        <v>29.42879615375813</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.42643606080214</v>
+        <v>29.42887471786086</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.42627623324706</v>
+        <v>29.42854141433617</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.42631113261386</v>
+        <v>29.42898932636248</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.4261963214929</v>
+        <v>29.42909938844354</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.42646937099051</v>
+        <v>29.42921079253712</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.42651923415745</v>
+        <v>29.43001656840307</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.42685776997876</v>
+        <v>29.4302978036359</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.42665454264862</v>
+        <v>29.42832051321167</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.42658107550344</v>
+        <v>29.42884905088785</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.42653160429433</v>
+        <v>29.42914213926936</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.42693241167251</v>
+        <v>29.42848604163099</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.42684503642389</v>
+        <v>29.42898854348973</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.42601641888278</v>
+        <v>29.42930029962343</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.42361332140716</v>
+        <v>29.42911060250855</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.42368025260901</v>
+        <v>29.42953927787431</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.42369856641261</v>
+        <v>29.42972117548344</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.42334815212228</v>
+        <v>29.42916715342394</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.42346491639935</v>
+        <v>29.42986965745587</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.42350181549729</v>
+        <v>29.43014384712233</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.42485157660189</v>
+        <v>29.42961418479868</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.42496911477892</v>
+        <v>29.43043131857258</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.42499016541311</v>
+        <v>29.43076468062953</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.42463476362917</v>
+        <v>29.4286725612573</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.42469627262712</v>
+        <v>29.42921458034928</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.42470272529842</v>
+        <v>29.42952996132795</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.42532111043258</v>
+        <v>29.42886030972178</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.42537291347221</v>
+        <v>29.42937388786093</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.42537995805156</v>
+        <v>29.42970301495222</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.42270311653315</v>
+        <v>29.42946394258606</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.42276592667857</v>
+        <v>29.42989090432499</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.4227836153988</v>
+        <v>29.43009792945152</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.42240010501261</v>
+        <v>29.4294818103848</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.42252113993081</v>
+        <v>29.4301776156192</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.42255448414165</v>
+        <v>29.4304952579397</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.42730165900807</v>
+        <v>29.42890857944998</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.4273246825271</v>
+        <v>29.42934106197288</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.42732533116353</v>
+        <v>29.42946352141279</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.42692678472719</v>
+        <v>29.42848965063805</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.42693609863969</v>
+        <v>29.42871928129762</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.42694287087048</v>
+        <v>29.42887653785403</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.42744930017495</v>
+        <v>29.42864048861408</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.42745778142858</v>
+        <v>29.42887813431937</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.42746356073825</v>
+        <v>29.42905428619065</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.42550053837094</v>
+        <v>29.42868043637299</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.42551590330369</v>
+        <v>29.42894153807947</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.42551989870369</v>
+        <v>29.42902109634866</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.42533766826519</v>
+        <v>29.42867528983624</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.42536607360202</v>
+        <v>29.42912367539207</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.4253711394593</v>
+        <v>29.42923463915467</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.42517736473174</v>
+        <v>29.42911333565907</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.42522686714002</v>
+        <v>29.42991787607816</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.42522151678107</v>
+        <v>29.43019956622457</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.42457526302163</v>
+        <v>29.4281764842301</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.42460829190638</v>
+        <v>29.4287030973706</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.42460276656584</v>
+        <v>29.42899861710583</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.42537081349526</v>
+        <v>29.42835525477282</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.42539746892451</v>
+        <v>29.42885548865531</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.42554645930731</v>
+        <v>29.42916931850679</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.42260463036722</v>
+        <v>29.42896161431786</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.42259854728369</v>
+        <v>29.42938740382368</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.42259987749303</v>
+        <v>29.42957154089645</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.42235199094673</v>
+        <v>29.42902226204514</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.42236323122627</v>
+        <v>29.42971972381197</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.42228984253832</v>
+        <v>29.42999755646517</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.42541604678658</v>
+        <v>29.42952984996858</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.42541631500672</v>
+        <v>29.43034726941738</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.42555731588808</v>
+        <v>29.43068047692966</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.42533321656975</v>
+        <v>29.42854487768434</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.42523126322224</v>
+        <v>29.42908569663685</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.42518046910386</v>
+        <v>29.42940363570945</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.42577191006883</v>
+        <v>29.42874625941211</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.4256838458248</v>
+        <v>29.42925895926324</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.42610245991423</v>
+        <v>29.42959006252237</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.42337894086155</v>
+        <v>29.42933007599864</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.42340760484806</v>
+        <v>29.42975437522526</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.42341544760404</v>
+        <v>29.42996345520291</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.4231192039671</v>
+        <v>29.42935013099276</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.42319297066118</v>
+        <v>29.43004116404488</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.42294815200666</v>
+        <v>29.43036204318109</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.42938475845436</v>
+        <v>29.42855554310069</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.42894364450022</v>
+        <v>29.42910103348844</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.4289393706523</v>
+        <v>29.42925889182139</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.42872221140276</v>
+        <v>29.42808847846392</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.42872349677057</v>
+        <v>29.4283799310943</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.4287207292071</v>
+        <v>29.42859227001843</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.42902319525171</v>
+        <v>29.42826184564526</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.42902161981604</v>
+        <v>29.42855399559449</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.42901971429536</v>
+        <v>29.42878744067497</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.4278885445728</v>
+        <v>29.42836496892764</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.42790071820446</v>
+        <v>29.42868884065738</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.42789883350564</v>
+        <v>29.428799055868</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.42780848657482</v>
+        <v>29.42835454140415</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.42782398347235</v>
+        <v>29.42890990174162</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.42782278122642</v>
+        <v>29.4290652775114</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.42759387521703</v>
+        <v>29.42915517558259</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.42790943680008</v>
+        <v>29.43015012838336</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.4279139181038</v>
+        <v>29.4304938257328</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.42775236331882</v>
+        <v>29.42805376347965</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.42773379544239</v>
+        <v>29.42870797445821</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.42773293442347</v>
+        <v>29.42906714882111</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.42820259134562</v>
+        <v>29.42822992866887</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.42810745350288</v>
+        <v>29.42886754704789</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.42810765776759</v>
+        <v>29.42924728231332</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.42605083266032</v>
+        <v>29.42906147727914</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.42615290402167</v>
+        <v>29.42956780135525</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.42614507340124</v>
+        <v>29.42979367628871</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.4259864151903</v>
+        <v>29.42912927890263</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.42602803515419</v>
+        <v>29.42995203626375</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.42601923435324</v>
+        <v>29.43029377735056</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.42745128887364</v>
+        <v>29.42941756076393</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.42738714427852</v>
+        <v>29.43041796600718</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.42738316711555</v>
+        <v>29.43082049497927</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.42706364178385</v>
+        <v>29.42828213941857</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.42704355712661</v>
+        <v>29.42895530535684</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.42703670847218</v>
+        <v>29.42934351380576</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.42759664746125</v>
+        <v>29.42847785913082</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.4275196006053</v>
+        <v>29.42913069016912</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.42751782288201</v>
+        <v>29.42953290365148</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.4255389951469</v>
+        <v>29.42930829609339</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.42567250661896</v>
+        <v>29.42981688548257</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.42566183472766</v>
+        <v>29.43007370445169</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.4254886033907</v>
+        <v>29.42934705504613</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.42553230636318</v>
+        <v>29.43016920014167</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.42551959282236</v>
+        <v>29.4305639464478</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.4280857385784</v>
+        <v>29.42893701698742</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.42893040181431</v>
+        <v>29.42941527472779</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.42912843871672</v>
+        <v>29.42954721943718</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.42900724057743</v>
+        <v>29.42853119103378</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.42897754072106</v>
+        <v>29.4287884510437</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.42895351823029</v>
+        <v>29.42896112562907</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.42913215069376</v>
+        <v>29.42868296625024</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.42909219281091</v>
+        <v>29.42894807245152</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.42869464402392</v>
+        <v>29.42914004177049</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.42732761004833</v>
+        <v>29.42874295638014</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.42734529295673</v>
+        <v>29.42903020472015</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.42734756309211</v>
+        <v>29.42911909378515</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.42721654347426</v>
+        <v>29.42872356598891</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.42724644003655</v>
+        <v>29.42921576424154</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.42714741159353</v>
+        <v>29.42934055491573</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.42739616391926</v>
+        <v>29.42925156081296</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.42743877180227</v>
+        <v>29.43012854557553</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.4277334194796</v>
+        <v>29.43043336776722</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.42758424570809</v>
+        <v>29.42831468488221</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.42752058438321</v>
+        <v>29.42889071739487</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.42747898863255</v>
+        <v>29.42920944123177</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.4277884136472</v>
+        <v>29.42848377903682</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.42771278842191</v>
+        <v>29.42903431424766</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.42697711568987</v>
+        <v>29.429371872196</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.42503302515447</v>
+        <v>29.42917188312298</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.42509232030623</v>
+        <v>29.42963413502423</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.42510801494079</v>
+        <v>29.42983268131249</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.42481475947082</v>
+        <v>29.42922220984203</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.42491842817597</v>
+        <v>29.42997821377613</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.42495031765496</v>
+        <v>29.43027781725594</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.42601086416519</v>
+        <v>29.42964014171497</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.42611243706083</v>
+        <v>29.43052896022333</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.4261308123748</v>
+        <v>29.4308896007389</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.42584671693895</v>
+        <v>29.42865272530356</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.42590054455378</v>
+        <v>29.42924504097168</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.42590616795412</v>
+        <v>29.42958853294797</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.42640134243499</v>
+        <v>29.42884571031812</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.42644635368486</v>
+        <v>29.42941026060598</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.42645283349331</v>
+        <v>29.42976696645491</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.42428530921531</v>
+        <v>29.42951370528468</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.42434032125131</v>
+        <v>29.42997531462028</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.42435575533897</v>
+        <v>29.43020146032304</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.42403565006497</v>
+        <v>29.42952476870875</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.42414143882544</v>
+        <v>29.43027539356391</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.4241707447889</v>
+        <v>29.43062261640599</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.42831829507272</v>
+        <v>29.42876958498523</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.42833610550152</v>
+        <v>29.42925851089072</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.42833685314621</v>
+        <v>29.42939071883518</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.4280438807969</v>
+        <v>29.42832223593074</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.42805202740153</v>
+        <v>29.42859496607304</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.42805702709758</v>
+        <v>29.4287660198266</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.42842802973884</v>
+        <v>29.4284857136464</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.42843544722207</v>
+        <v>29.42876665534896</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.42843979697879</v>
+        <v>29.42895538176661</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.42699517804918</v>
+        <v>29.42854817782677</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.42700739201323</v>
+        <v>29.42884121295653</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.42701044486237</v>
+        <v>29.42893063126074</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.42687465949877</v>
+        <v>29.42854008419922</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.42689679937178</v>
+        <v>29.42903954940475</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.42690076614311</v>
+        <v>29.42916588009716</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.42677888410784</v>
+        <v>29.42883414516533</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.42681754819898</v>
+        <v>29.4297198700023</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.42681286092727</v>
+        <v>29.43003330812431</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.42633485706248</v>
+        <v>29.42783074259987</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.42636251031468</v>
+        <v>29.42841030872941</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.4263573164177</v>
+        <v>29.42873236966748</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.42691601437134</v>
+        <v>29.42802145355214</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.42693881638231</v>
+        <v>29.42857629491363</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.42698656209488</v>
+        <v>29.42891509953334</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.42479648292063</v>
+        <v>29.42868516953884</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.42479204347141</v>
+        <v>29.42914858353227</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.42479251672319</v>
+        <v>29.42935204626599</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.42460913667484</v>
+        <v>29.42875773436075</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.42461735985303</v>
+        <v>29.42951528454058</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.42456455805489</v>
+        <v>29.4298237034478</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.42689930273136</v>
+        <v>29.42923201449648</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.42689898668917</v>
+        <v>29.43012870791071</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.42701512192481</v>
+        <v>29.43050045289424</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.4268443862099</v>
+        <v>29.42817415712707</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.42677000804348</v>
+        <v>29.42877291925655</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.42673301393336</v>
+        <v>29.42912004920695</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.42717205976244</v>
+        <v>29.42839102569724</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.42710730475573</v>
+        <v>29.42896202958189</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.42736392551123</v>
+        <v>29.42932063173364</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.42530787260583</v>
+        <v>29.42903234383341</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.4253281706149</v>
+        <v>29.42949551599078</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.42533304956932</v>
+        <v>29.42972859590559</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.42511313162427</v>
+        <v>29.42906380238281</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.42516589150308</v>
+        <v>29.42981596693536</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.42498793901722</v>
+        <v>29.4301758279979</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.42858690379078</v>
+        <v>29.42867294946178</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.42860462535338</v>
+        <v>29.42918570771076</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.4286021922499</v>
+        <v>29.4293196163523</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.42833860854213</v>
+        <v>29.42824143391666</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.42834522151178</v>
+        <v>29.42852882213393</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.4283425543154</v>
+        <v>29.42870517440835</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.42868276811003</v>
+        <v>29.42840301782884</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.42868860333999</v>
+        <v>29.42869861912558</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.4286868242676</v>
+        <v>29.4288931103921</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.42740062329353</v>
+        <v>29.4284831676453</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.42741128153749</v>
+        <v>29.4287895838923</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.42740965614968</v>
+        <v>29.42888298029238</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.42731185956477</v>
+        <v>29.42847694273314</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.42733348455806</v>
+        <v>29.42899865740679</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.42733284762084</v>
+        <v>29.4291311606932</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.42749705637704</v>
+        <v>29.42889486889821</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.42757025503392</v>
+        <v>29.42981576020377</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.42758374939562</v>
+        <v>29.43014129639789</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.42734936190187</v>
+        <v>29.42790753142864</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.42740071797275</v>
+        <v>29.42851285470892</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.42740565974423</v>
+        <v>29.42884449840372</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.42775842822251</v>
+        <v>29.42808550295533</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.42780141414311</v>
+        <v>29.42866711931722</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.42753273670992</v>
+        <v>29.42901663077117</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.42566346788681</v>
+        <v>29.42880751339737</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.42569273676358</v>
+        <v>29.42929035222031</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.42568397190444</v>
+        <v>29.4294992814053</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.42549383791631</v>
+        <v>29.4288793036157</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.42555021250799</v>
+        <v>29.42966807884526</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.4255396207783</v>
+        <v>29.42998459976279</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.42696160138276</v>
+        <v>29.42930611836543</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.42699684843834</v>
+        <v>29.43023750472194</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.42699512766849</v>
+        <v>29.43062396414885</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.42656324585532</v>
+        <v>29.42826987885039</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.4265882909093</v>
+        <v>29.42889489875787</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.42658367203687</v>
+        <v>29.42925250982062</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.4271034581063</v>
+        <v>29.42847217679748</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.42712386246491</v>
+        <v>29.42906948596566</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.42712477820818</v>
+        <v>29.42944014731465</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.42506719713271</v>
+        <v>29.42917489801585</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.42509683144117</v>
+        <v>29.42965864236927</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.42508786111912</v>
+        <v>29.42989817259819</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.4248811373358</v>
+        <v>29.42920467110773</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.42494032623951</v>
+        <v>29.4299901304209</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.42493060988957</v>
+        <v>29.43035979400617</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.42952482750457</v>
+        <v>29.42886578751709</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.42967976833716</v>
+        <v>29.42935805470373</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.42967748337091</v>
+        <v>29.4294898263314</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.42958380608867</v>
+        <v>29.42844729042501</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.42955080773482</v>
+        <v>29.42872151737578</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.42954801788744</v>
+        <v>29.42889312262565</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.42968406593522</v>
+        <v>29.42860053203378</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.42939071259074</v>
+        <v>29.42888361237159</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.42939017662187</v>
+        <v>29.4290722174621</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.42840919200518</v>
+        <v>29.42867933832398</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.42842065627158</v>
+        <v>29.42897407997369</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.42842201171664</v>
+        <v>29.42906379070036</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.42832971425753</v>
+        <v>29.42866719012675</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.42828046290941</v>
+        <v>29.42916958312261</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.42828240675077</v>
+        <v>29.429296323917</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.42842923288182</v>
+        <v>29.42891054110914</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.42866083588849</v>
+        <v>29.42979630983254</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.42865655830277</v>
+        <v>29.43011451566193</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.42853418589585</v>
+        <v>29.4279301190588</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.42847012055243</v>
+        <v>29.4285112466814</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.42846403149593</v>
+        <v>29.42883764594694</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.42870184900541</v>
+        <v>29.42811557031629</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.42814484457597</v>
+        <v>29.42867249739366</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.42819844719131</v>
+        <v>29.4290159010394</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.4267103662914</v>
+        <v>29.4287836759409</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.42674091909337</v>
+        <v>29.42924780487118</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.42675115653167</v>
+        <v>29.42945291238813</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.4265615512773</v>
+        <v>29.42885069698043</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.42661945928823</v>
+        <v>29.42960912175663</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.42678300865956</v>
+        <v>29.4299196044876</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.42749352047021</v>
+        <v>29.42934515628976</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.42755346835155</v>
+        <v>29.43024379754096</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.42774536450845</v>
+        <v>29.43062180442694</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.42735636027709</v>
+        <v>29.42832198736249</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.4273802418215</v>
+        <v>29.42892364070803</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.42728887033189</v>
+        <v>29.42927486988073</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.42775689369339</v>
+        <v>29.42853052107427</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.42777770408095</v>
+        <v>29.42910483351144</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.42788809973513</v>
+        <v>29.42946854311632</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.42618343213988</v>
+        <v>29.42917889428477</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.42620679832876</v>
+        <v>29.42964420259088</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.42622045794188</v>
+        <v>29.42987944256802</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.42601365901817</v>
+        <v>29.42920174970568</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.42606569320519</v>
+        <v>29.42995720396342</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.42515962518446</v>
+        <v>29.4303201912804</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.42869730089252</v>
+        <v>29.42876581112052</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.4287128573663</v>
+        <v>29.42923599974184</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.42873373260407</v>
+        <v>29.42935864879817</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.42846332497866</v>
+        <v>29.4283410987396</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.42846885414097</v>
+        <v>29.42860438255033</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.42845985244894</v>
+        <v>29.42876325572556</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.42879415565138</v>
+        <v>29.42849343675768</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.42879941253735</v>
+        <v>29.42876616527288</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.42880364170363</v>
+        <v>29.42894199618557</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.42754893635251</v>
+        <v>29.42856539742549</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.42755851732441</v>
+        <v>29.42884746244971</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.42756194411699</v>
+        <v>29.42893066578065</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.42744315684326</v>
+        <v>29.42856750979743</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.4274619072663</v>
+        <v>29.42904792748994</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.4276503194694</v>
+        <v>29.42916547976568</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.42738999767796</v>
+        <v>29.42891609706623</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.42742168167825</v>
+        <v>29.42976592070073</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.42741908426837</v>
+        <v>29.43007110808347</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.42702855199527</v>
+        <v>29.42796194062559</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.42704758265868</v>
+        <v>29.42851976355396</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.42699878900094</v>
+        <v>29.42883133765018</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.42751945860303</v>
+        <v>29.42814349279562</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.42751034185565</v>
+        <v>29.42867615888792</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.42750397485853</v>
+        <v>29.42900503594674</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.42559222709037</v>
+        <v>29.42878347489937</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.42558960220915</v>
+        <v>29.42923226765786</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.42559004777088</v>
+        <v>29.42942813319912</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.42542879960315</v>
+        <v>29.42885248373333</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.42539347046611</v>
+        <v>29.42958680640501</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.42539709036571</v>
+        <v>29.42988333746479</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.42743647862887</v>
+        <v>29.42935789394482</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.42753826507921</v>
+        <v>29.43022055024221</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.4275337919705</v>
+        <v>29.43058347822763</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.42738313989519</v>
+        <v>29.42836034248944</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.42729333029931</v>
+        <v>29.42893701742732</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.42728453035367</v>
+        <v>29.42927142842968</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.42767391688957</v>
+        <v>29.42856408720136</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.42784938349171</v>
+        <v>29.42911236666191</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.42784111183539</v>
+        <v>29.42945983966482</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.42605471856695</v>
+        <v>29.42918393273998</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.42607365444658</v>
+        <v>29.42963315384903</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.4260779871902</v>
+        <v>29.42985729636031</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.42588597296957</v>
+        <v>29.42920934985291</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.42569523851716</v>
+        <v>29.42993969901427</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.42492745146358</v>
+        <v>29.4302856738785</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.42882191322637</v>
+        <v>29.42864622286749</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.42883159789532</v>
+        <v>29.42918656162437</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.42882849689696</v>
+        <v>29.42934673232648</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.42858718473818</v>
+        <v>29.42817748698609</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.42858845196656</v>
+        <v>29.42846494322117</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.42859194282155</v>
+        <v>29.42867772649871</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.42890501196345</v>
+        <v>29.42834974550573</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.42890597491547</v>
+        <v>29.42863764243922</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.42891046059461</v>
+        <v>29.4288719335949</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.42772031305705</v>
+        <v>29.42845605921286</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.42772465102383</v>
+        <v>29.42877723646537</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.42771970797951</v>
+        <v>29.42888670581393</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.42763904347959</v>
+        <v>29.4284416430812</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.42765026071432</v>
+        <v>29.42899282599996</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.42831896405545</v>
+        <v>29.42914669717978</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.42783372976067</v>
+        <v>29.42888197151593</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.42788623196749</v>
+        <v>29.42987198430508</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.4280261507167</v>
+        <v>29.43021275580146</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.42767025060506</v>
+        <v>29.4277198121633</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.42770194168528</v>
+        <v>29.42836923638228</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.42763450863265</v>
+        <v>29.42872782322524</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.42805357624961</v>
+        <v>29.42791117996299</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.42781263311731</v>
+        <v>29.42854399756154</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.42784027972645</v>
+        <v>29.428922368017</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.42605933717033</v>
+        <v>29.42872584438161</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.42607298480553</v>
+        <v>29.42922717682533</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.42606958951221</v>
+        <v>29.42945304594071</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.4259070145803</v>
+        <v>29.42881234022323</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.42593843715528</v>
+        <v>29.42962675532289</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.42593403298597</v>
+        <v>29.429968611103</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.42730656201573</v>
+        <v>29.42914880123692</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.42732644897165</v>
+        <v>29.43014543160688</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.42734983586977</v>
+        <v>29.43054446819987</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.42693845126113</v>
+        <v>29.4279574961296</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.42694897324493</v>
+        <v>29.42862658034875</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.42690125763851</v>
+        <v>29.42901352143301</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.42744109167132</v>
+        <v>29.42816868327152</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.42744950888342</v>
+        <v>29.42881782178983</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.42749722673423</v>
+        <v>29.42921787486402</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.42552433085057</v>
+        <v>29.42898085895336</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.42553706521666</v>
+        <v>29.42948464517935</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.42553325075553</v>
+        <v>29.42974086498451</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.42535613608355</v>
+        <v>29.42903718265137</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.42538823922732</v>
+        <v>29.42985118925684</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.42567591503478</v>
+        <v>29.43024507879198</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.42976168365794</v>
+        <v>29.42877045676992</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.42974694743567</v>
+        <v>29.42926954595677</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.42974499572638</v>
+        <v>29.42940041975641</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.42965006979843</v>
+        <v>29.42834173267159</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.42962973588627</v>
+        <v>29.42862637920615</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.4296272341302</v>
+        <v>29.42879672386715</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.42947041173776</v>
+        <v>29.42850100498683</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.42946345492951</v>
+        <v>29.42879378293231</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.4294630226776</v>
+        <v>29.42898021479008</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.42851757169923</v>
+        <v>29.42857928275277</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.42853063777488</v>
+        <v>29.42887648088128</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.42853184180341</v>
+        <v>29.42896675490508</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.42834781837294</v>
+        <v>29.42857348445611</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.42838462487877</v>
+        <v>29.42907804822959</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.42838622366995</v>
+        <v>29.42920623941706</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.42880332456771</v>
+        <v>29.42877064096029</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.4287705418262</v>
+        <v>29.4296529387035</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.42876682014477</v>
+        <v>29.42997211504432</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.4286388278261</v>
+        <v>29.42777662519277</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.42859600429547</v>
+        <v>29.42835678044369</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.42859043860082</v>
+        <v>29.42868000966383</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.42825053663395</v>
+        <v>29.42796419490529</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.428352613829</v>
+        <v>29.42852302942477</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.42833117861905</v>
+        <v>29.42886121462769</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.42690001558044</v>
+        <v>29.42862702029909</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.42693286408722</v>
+        <v>29.42908703293579</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.42693847699387</v>
+        <v>29.42929180270086</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.42680128050397</v>
+        <v>29.4287050827745</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.42691606495593</v>
+        <v>29.42945572455908</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.42694200993574</v>
+        <v>29.42976654703029</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.4278714486747</v>
+        <v>29.42917754589157</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.42787323927455</v>
+        <v>29.43007070297343</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.42787145791726</v>
+        <v>29.43044943098989</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.42734467219941</v>
+        <v>29.42814010749692</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.42740451421267</v>
+        <v>29.4287419806859</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.42741476223805</v>
+        <v>29.42909054905411</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.42813269047629</v>
+        <v>29.42835167840242</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.42805814934258</v>
+        <v>29.4289281712794</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.42803873730319</v>
+        <v>29.42928747632438</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.42638965579535</v>
+        <v>29.42899453832961</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.42641165412744</v>
+        <v>29.42945675721328</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.42641976354148</v>
+        <v>29.42969231871209</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.4253087698111</v>
+        <v>29.4290297633907</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.42534196994977</v>
+        <v>29.42977906753496</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.42534625802711</v>
+        <v>29.43014349828445</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.42958905920722</v>
+        <v>29.4298689498158</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.42958920259206</v>
+        <v>29.4302873011436</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.42958939260943</v>
+        <v>29.43041781031987</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.42941473639351</v>
+        <v>29.42962791569866</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.42941934260348</v>
+        <v>29.42985270715413</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.42941953300113</v>
+        <v>29.43003188014292</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.42963993788997</v>
+        <v>29.42972700617088</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.42963337920227</v>
+        <v>29.42994600844634</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.42963434607712</v>
+        <v>29.43014233245428</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.42882525522452</v>
+        <v>29.42986094069786</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.42882885691912</v>
+        <v>29.43010764615701</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.4288287383189</v>
+        <v>29.43020136141207</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.4288481008082</v>
+        <v>29.42981407408099</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.42886178846919</v>
+        <v>29.43023692747708</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.4288616106771</v>
+        <v>29.43036950217954</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.42867966911407</v>
+        <v>29.42953012864298</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.42867593066583</v>
+        <v>29.43024992146046</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.42867428174304</v>
+        <v>29.43050222507005</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.42840033397071</v>
+        <v>29.4286671611322</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.42841058267877</v>
+        <v>29.42914548141574</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.42842747313588</v>
+        <v>29.42941728521004</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.42878250035452</v>
+        <v>29.42880017586541</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.42876660442562</v>
+        <v>29.42927836401674</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.42876611145505</v>
+        <v>29.42956160909391</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.42752321417898</v>
+        <v>29.42942712740515</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.42752690692177</v>
+        <v>29.42977656471749</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.42751615612592</v>
+        <v>29.42994755171245</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.42740162931992</v>
+        <v>29.42950368458627</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.42742128978469</v>
+        <v>29.43006537335947</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.42743737363536</v>
+        <v>29.4303240683557</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.42846526230696</v>
+        <v>29.42952496348237</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.42844747068819</v>
+        <v>29.43024408916312</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.42843807730564</v>
+        <v>29.43053763343911</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.42821054335766</v>
+        <v>29.42865501708623</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.42818861278323</v>
+        <v>29.42914764839658</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.4283912190465</v>
+        <v>29.42944347002445</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.42874712624982</v>
+        <v>29.42879867481307</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.4287254795961</v>
+        <v>29.42928871601008</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.42872524485646</v>
+        <v>29.4295912386009</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.42748717436517</v>
+        <v>29.42943619613843</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.42749772055307</v>
+        <v>29.42979045350479</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.42746244295131</v>
+        <v>29.42998460305747</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.42733283598711</v>
+        <v>29.42950463441904</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.42691130449763</v>
+        <v>29.43007175654263</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.4269106052482</v>
+        <v>29.43036945394073</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.43024110561215</v>
+        <v>29.43009314460488</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.43024331516589</v>
+        <v>29.43012745258203</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.43024303040829</v>
+        <v>29.43016902105881</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.43014620730891</v>
+        <v>29.42996709412636</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.43014444021213</v>
+        <v>29.42996396505788</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.43014533895355</v>
+        <v>29.43001243837446</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.43027370119002</v>
+        <v>29.43004074562961</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.43027189195308</v>
+        <v>29.43003211802681</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.43027123553913</v>
+        <v>29.43009030532271</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.42979810559839</v>
+        <v>29.42992453699473</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.42980007043441</v>
+        <v>29.42995500684477</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.4298003462384</v>
+        <v>29.4299712577055</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.42975870151261</v>
+        <v>29.42994739346511</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.42982304634506</v>
+        <v>29.43000774941848</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.42982273807119</v>
+        <v>29.43002662197165</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.42971250440213</v>
+        <v>29.43007552666356</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.42973222762769</v>
+        <v>29.43017413896198</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.42973201805996</v>
+        <v>29.43021829822572</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.42958761524004</v>
+        <v>29.42994906955633</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.42957795797572</v>
+        <v>29.43001550079661</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.42957920442829</v>
+        <v>29.43008863746181</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.42975579593543</v>
+        <v>29.42996250203796</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.42977196844529</v>
+        <v>29.43003104371176</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.42977038992005</v>
+        <v>29.43009563794731</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.42903279635611</v>
+        <v>29.4300299370648</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.42903547639941</v>
+        <v>29.43006415803832</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.42903550203306</v>
+        <v>29.43011779646992</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.42897160458354</v>
+        <v>29.43010773018432</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.42896983998819</v>
+        <v>29.43015897459875</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.4289720888423</v>
+        <v>29.43024320885823</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.42951071208558</v>
+        <v>29.42996346596133</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.42953875415023</v>
+        <v>29.43006145561658</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.42953772541538</v>
+        <v>29.43011298898747</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.42937343600253</v>
+        <v>29.42981725249912</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.42935916686481</v>
+        <v>29.42988601195569</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.42936075956455</v>
+        <v>29.42996456229523</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.42958633600914</v>
+        <v>29.42983505496392</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.4296133718719</v>
+        <v>29.42990586003116</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.42961099691352</v>
+        <v>29.429976675759</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.42877234704684</v>
+        <v>29.42989499497716</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.42877549059835</v>
+        <v>29.429930375215</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.42877566578367</v>
+        <v>29.42998536362198</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.4287030676601</v>
+        <v>29.42997596770699</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.42887723189972</v>
+        <v>29.43002878095422</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.42889818717447</v>
+        <v>29.43011424707947</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.42960112011703</v>
+        <v>29.42900368100166</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.4295962658431</v>
+        <v>29.42951083771726</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.4295921621645</v>
+        <v>29.42965051340099</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.42944507956578</v>
+        <v>29.42861683094753</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.42943731575058</v>
+        <v>29.42890692800696</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.42940106405139</v>
+        <v>29.42908896863618</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.42961577904739</v>
+        <v>29.42876373332443</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.42961438555627</v>
+        <v>29.42905729652949</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.42961440179477</v>
+        <v>29.42925618804625</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.42877717215705</v>
+        <v>29.4288789216275</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.42878540692224</v>
+        <v>29.42917810564916</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.42878577017841</v>
+        <v>29.42927414568057</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.42875539149201</v>
+        <v>29.42886222367476</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.42875849013394</v>
+        <v>29.42936968769677</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.42875940535403</v>
+        <v>29.4295059311371</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.42859630378963</v>
+        <v>29.42881028087693</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.42858387784031</v>
+        <v>29.42968015990396</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.42858313397273</v>
+        <v>29.42999978213916</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.428280955622</v>
+        <v>29.42775430826718</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.42835002307789</v>
+        <v>29.42832958542735</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.42834590008671</v>
+        <v>29.42865707897007</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.42869130642855</v>
+        <v>29.42794627098351</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.42865540636163</v>
+        <v>29.42850993628024</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.42865102148921</v>
+        <v>29.42885007866087</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.42739644890966</v>
+        <v>29.42861021263867</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.42743344645676</v>
+        <v>29.42905201287407</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.42743481008527</v>
+        <v>29.42925975834032</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.42730113266446</v>
+        <v>29.4286957910997</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.42733696509337</v>
+        <v>29.4294124422786</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.42733703371043</v>
+        <v>29.4297279040292</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.42829377236999</v>
+        <v>29.42909557036866</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.42823937611051</v>
+        <v>29.42997351545892</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.42823984466826</v>
+        <v>29.43035081212453</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.42791349721898</v>
+        <v>29.42801856973195</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.42801359192396</v>
+        <v>29.42861662070276</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.42800969797227</v>
+        <v>29.42897136854381</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.42841257624063</v>
+        <v>29.42822809682698</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.42837300634845</v>
+        <v>29.42881049982515</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.42836885986912</v>
+        <v>29.42917398819204</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.42691404123357</v>
+        <v>29.42888612917958</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.42650633534893</v>
+        <v>29.42933339188045</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.42650580148912</v>
+        <v>29.42957194979168</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.42637195221323</v>
+        <v>29.4289381040105</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.4263854285855</v>
+        <v>29.42965933839838</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.42638626230969</v>
+        <v>29.43002788258526</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.4294042216131</v>
+        <v>29.42936916062626</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.42940359189822</v>
+        <v>29.42979409613609</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.42940379949344</v>
+        <v>29.4299272827164</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.42920735995384</v>
+        <v>29.42901616816715</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.42921760617196</v>
+        <v>29.42924253679741</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.42921921713548</v>
+        <v>29.42942005300932</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.42946536868461</v>
+        <v>29.42914139248247</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.42945269661269</v>
+        <v>29.42936393290189</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.42945358155968</v>
+        <v>29.42955915380066</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.42854751996069</v>
+        <v>29.42925868945898</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.42867836823634</v>
+        <v>29.42951113509796</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.42867607377433</v>
+        <v>29.42960214152958</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.42859710580652</v>
+        <v>29.42924119047405</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.42861473509734</v>
+        <v>29.4296746109363</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.42861274703311</v>
+        <v>29.42980241994774</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.42841860316399</v>
+        <v>29.42894044397334</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.42840211470079</v>
+        <v>29.42969816270714</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.42839835918928</v>
+        <v>29.42996429789417</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.42801922980478</v>
+        <v>29.42791022759358</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.427996904123</v>
+        <v>29.42840939928828</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.42799760244779</v>
+        <v>29.42869300348661</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.42842630677813</v>
+        <v>29.42808773394435</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.42840446723427</v>
+        <v>29.42857965316154</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.42840494472025</v>
+        <v>29.42887717425329</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.4269223343742</v>
+        <v>29.42870101468535</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.42693820621423</v>
+        <v>29.42907500273575</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.4269398740822</v>
+        <v>29.42925290988257</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.4268365328905</v>
+        <v>29.42880387886136</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.42683607698893</v>
+        <v>29.42940813334087</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.42683951599445</v>
+        <v>29.42967704224546</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.42815635416254</v>
+        <v>29.42909955932722</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.42813077181226</v>
+        <v>29.42986321529192</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.42813036730049</v>
+        <v>29.43017244248596</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.42800573491211</v>
+        <v>29.42806814011574</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.42797763888816</v>
+        <v>29.42858460717659</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.42797902197384</v>
+        <v>29.42889036745371</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.4284122600891</v>
+        <v>29.42825541245118</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.42838270649798</v>
+        <v>29.42876258884007</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.42838362474698</v>
+        <v>29.42907709729135</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.42685534359638</v>
+        <v>29.42887783648159</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.42688932522338</v>
+        <v>29.42925622525063</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.42655963900473</v>
+        <v>29.429457812323</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.42641392295697</v>
+        <v>29.4289609144315</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.42643936206207</v>
+        <v>29.42956915011294</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.42643929171223</v>
+        <v>29.42987857452458</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.43024817870451</v>
+        <v>29.43007954783371</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.43024766987451</v>
+        <v>29.43011224531819</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.43024730295587</v>
+        <v>29.43015317403929</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.43014919093665</v>
+        <v>29.42995009560737</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.43014929437184</v>
+        <v>29.42994649810585</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.43015199363145</v>
+        <v>29.42999398470817</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.43027779225925</v>
+        <v>29.43002419616356</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.43027609559775</v>
+        <v>29.43001509159488</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.43027450617878</v>
+        <v>29.43007224732602</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.42980577507235</v>
+        <v>29.42990752922174</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.42980657171527</v>
+        <v>29.42993709174959</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.42986803808235</v>
+        <v>29.42995283223893</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.4298293237534</v>
+        <v>29.42993200720464</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.42983434812917</v>
+        <v>29.4299907124281</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.42983401809649</v>
+        <v>29.430008866776</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.42974634301641</v>
+        <v>29.43004436825069</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.42974381239497</v>
+        <v>29.43013962668981</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.42973621329244</v>
+        <v>29.43018293989068</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.42958963455343</v>
+        <v>29.42991516895352</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.42956174056909</v>
+        <v>29.42997937842442</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.42958842367739</v>
+        <v>29.43005156993082</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.4297847078141</v>
+        <v>29.42992999904405</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.42977834440756</v>
+        <v>29.42999622754993</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.429773183129</v>
+        <v>29.43005980598163</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.42904544574978</v>
+        <v>29.42999360647297</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.42904584771071</v>
+        <v>29.43002620633681</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.42903892151926</v>
+        <v>29.43007928340553</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.42897361395021</v>
+        <v>29.430073530138</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.42898164510698</v>
+        <v>29.43012218091812</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.42898386207752</v>
+        <v>29.43020557999214</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.42954811935072</v>
+        <v>29.42993093590181</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.42954620906844</v>
+        <v>29.43002563991694</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.42953247079275</v>
+        <v>29.43007592448112</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.42936600165959</v>
+        <v>29.42978109543472</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.42936778964963</v>
+        <v>29.42984757391768</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.42940540819231</v>
+        <v>29.42992488974393</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.4296272973183</v>
+        <v>29.42980045824496</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.42962042620637</v>
+        <v>29.42986893843364</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.42961559866314</v>
+        <v>29.42993847597451</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.42878646368762</v>
+        <v>29.42985618390531</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.42878680819864</v>
+        <v>29.42988985563896</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.4289527081897</v>
+        <v>29.42994411302349</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.42892087205903</v>
+        <v>29.42993939468597</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.42892357381311</v>
+        <v>29.42998946357717</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.42892423984099</v>
+        <v>29.4300738367325</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.42946993311075</v>
+        <v>29.42888773946538</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.42945953244336</v>
+        <v>29.42941231236207</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.42945946477249</v>
+        <v>29.42956738416503</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.42916722485262</v>
+        <v>29.42845684098616</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.42916527509667</v>
+        <v>29.42873646948472</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.42916553578461</v>
+        <v>29.42894228542609</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.42941365113976</v>
+        <v>29.42861560364252</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.4294100687646</v>
+        <v>29.42889693321316</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.42941047734763</v>
+        <v>29.42912333795257</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.42843408506596</v>
+        <v>29.42872525802732</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.42844790116459</v>
+        <v>29.42903716825193</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.42844816647096</v>
+        <v>29.42914297956155</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.42844082119569</v>
+        <v>29.42870121961258</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.42844557771333</v>
+        <v>29.42923631235714</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.42844676474038</v>
+        <v>29.42938499129889</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.42836211688608</v>
+        <v>29.42890091026834</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.42833863774183</v>
+        <v>29.429853319128</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.428337847277</v>
+        <v>29.43018503915089</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.42787065682432</v>
+        <v>29.42777431139216</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.42799870719347</v>
+        <v>29.42840024501934</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.42799027093274</v>
+        <v>29.42875036385924</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.42838026695643</v>
+        <v>29.42796578558749</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.42831808484439</v>
+        <v>29.42857493395555</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.42830987010697</v>
+        <v>29.42894401181233</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.42690973709446</v>
+        <v>29.42873738003552</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.42699778452007</v>
+        <v>29.42922092708374</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.427000480486</v>
+        <v>29.42944078932202</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.42682674559327</v>
+        <v>29.42882110658515</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.42689228654906</v>
+        <v>29.42960666852101</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.42689473725282</v>
+        <v>29.42993914476092</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.42790080255625</v>
+        <v>29.42920121490952</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.4278160468799</v>
+        <v>29.43016214215073</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.42781724569775</v>
+        <v>29.43055182200735</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.42743796641042</v>
+        <v>29.42804949387632</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.42761159419231</v>
+        <v>29.42869512711332</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.42760432227471</v>
+        <v>29.4290730168487</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.42806438979576</v>
+        <v>29.42826016091562</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.42799588760757</v>
+        <v>29.42888621550848</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.42798820486487</v>
+        <v>29.42927689206971</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.42634850661089</v>
+        <v>29.42902626226475</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.42585468090398</v>
+        <v>29.42951255046597</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.42585266084355</v>
+        <v>29.42976235865273</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.42568660497664</v>
+        <v>29.42907649783375</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.42571873322522</v>
+        <v>29.42986222918003</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.42571710169973</v>
+        <v>29.43024609257277</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.42933298668012</v>
+        <v>29.42900124704326</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.42933625973248</v>
+        <v>29.42952770415194</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.42933722145722</v>
+        <v>29.42967626214708</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.42912624697135</v>
+        <v>29.42860809691821</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.42914606604986</v>
+        <v>29.4289037092842</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.4291476093333</v>
+        <v>29.42909913106029</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.42940938787515</v>
+        <v>29.42875883536768</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.42939737909393</v>
+        <v>29.42905671113841</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.4293974049562</v>
+        <v>29.42927039911287</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.42843996502828</v>
+        <v>29.4288791829949</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.428635956098</v>
+        <v>29.42919030783134</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.42863383383429</v>
+        <v>29.4292929959955</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.42855016466913</v>
+        <v>29.42885408634564</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.42857212939133</v>
+        <v>29.42938346661875</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.42857020152076</v>
+        <v>29.42952893964591</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.42838840645584</v>
+        <v>29.42886868367814</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.42837964765761</v>
+        <v>29.42978442974023</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.42837442854477</v>
+        <v>29.43011450930117</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.42774311831088</v>
+        <v>29.42778730537144</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.42771567617686</v>
+        <v>29.42839188558546</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.42771401304876</v>
+        <v>29.42873280401822</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.42820300885569</v>
+        <v>29.42797674699699</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.42817675304401</v>
+        <v>29.42856913730905</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.42817497485896</v>
+        <v>29.42892433136564</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.42652686397766</v>
+        <v>29.42869868348723</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.42654249886619</v>
+        <v>29.42916244836732</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.42654408342859</v>
+        <v>29.42937812393532</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.42641593286869</v>
+        <v>29.42878240376197</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.42640909980517</v>
+        <v>29.42953461500429</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.42641175809443</v>
+        <v>29.42986176666837</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.42811803302218</v>
+        <v>29.42912579954888</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.42808681568641</v>
+        <v>29.43004855062026</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.42808485958372</v>
+        <v>29.4304366483597</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.42776132404204</v>
+        <v>29.42801932378892</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.42772617791604</v>
+        <v>29.42864602425447</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.42772459629554</v>
+        <v>29.42901518281155</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.42822628261992</v>
+        <v>29.42822751829555</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.4281889886995</v>
+        <v>29.42883809991641</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.42818688842658</v>
+        <v>29.4292167660883</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.42645030927284</v>
+        <v>29.4289449124693</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.42648939109267</v>
+        <v>29.42941353605882</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.42649261722</v>
+        <v>29.42966044354332</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.42633648490623</v>
+        <v>29.42899740196754</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.42636966942074</v>
+        <v>29.42975318562778</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.42637407084995</v>
+        <v>29.43013400055218</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.149</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.796</v>
+        <v>22.245</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.021</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.674</v>
+        <v>22.618</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.351</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.687</v>
+        <v>20.734</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.4295382200359</v>
+        <v>-1.926282899927354</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.42997175816569</v>
+        <v>25.72760314355257</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.4301087847713</v>
+        <v>30.0967992341429</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.42922857972513</v>
+        <v>7.409624844228961</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.4294597055329</v>
+        <v>16.55762153207666</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.42964473642294</v>
+        <v>20.63746085608959</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.42934698915348</v>
+        <v>15.35378950156762</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.42957277846234</v>
+        <v>22.54030250645012</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.42977619749717</v>
+        <v>25.13730265201723</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.42947310333848</v>
+        <v>27.36926015580928</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.42972940439654</v>
+        <v>33.59224095495942</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.42982529882057</v>
+        <v>35.42873706594314</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.42944124751874</v>
+        <v>16.71805292700462</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.42988109504591</v>
+        <v>32.29235976848206</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.43001632272823</v>
+        <v>36.56001017964802</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.42914043085846</v>
+        <v>3.260206355872629</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.42990303836827</v>
+        <v>30.91676218215928</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.43016846919009</v>
+        <v>35.28644189181016</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.42815245459768</v>
+        <v>12.59623251589044</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.42865527305834</v>
+        <v>21.74612963986037</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.42894113002982</v>
+        <v>25.82624538634336</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.42831393987936</v>
+        <v>20.54188845821789</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.42881416019819</v>
+        <v>27.72979566085091</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.42911251453486</v>
+        <v>30.32697841468671</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.42895462845988</v>
+        <v>32.55983215958865</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.42932556243512</v>
+        <v>38.78368938565568</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.42950609584553</v>
+        <v>40.62038083025895</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.4290509943813</v>
+        <v>21.90780786066869</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.42964857072243</v>
+        <v>37.48398496645738</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.42992198615572</v>
+        <v>41.75216479734961</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.42917719481361</v>
+        <v>9.908490066005175</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.4299411343837</v>
+        <v>37.56470642560923</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.43025081543151</v>
+        <v>41.93446167855397</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.42817989051735</v>
+        <v>19.24489848892238</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.42869853609085</v>
+        <v>28.39497208685787</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.429009103195</v>
+        <v>32.47515857948763</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.42835396685931</v>
+        <v>27.19073246871828</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.42886746847128</v>
+        <v>34.37878048482746</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.42918538407395</v>
+        <v>36.97600067004366</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.42900249942981</v>
+        <v>39.20924180073841</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.42937807872964</v>
+        <v>45.43310487469107</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.42958283850119</v>
+        <v>47.26983607428819</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.42908693737382</v>
+        <v>28.55736297229435</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.42968926151</v>
+        <v>44.13349736996433</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.43000360194444</v>
+        <v>48.4018079949888</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.42875244518872</v>
+        <v>-3.196020785553923</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.42928665328802</v>
+        <v>24.45834104938972</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.42942988296976</v>
+        <v>28.82740405886857</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.42832317231526</v>
+        <v>6.13997947548221</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.42862013397858</v>
+        <v>15.28832665054374</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.42880930727431</v>
+        <v>19.36800616078158</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.42848665880996</v>
+        <v>14.0841470044101</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.4287911794118</v>
+        <v>21.2709492377184</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.42899873770195</v>
+        <v>23.86782705549688</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.42857072193982</v>
+        <v>26.09965073488904</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.42888940073048</v>
+        <v>32.32278368671386</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.42898916447745</v>
+        <v>34.15919587019521</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.42855118145714</v>
+        <v>15.44822317147343</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.42909442502266</v>
+        <v>31.02298543229147</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.42923582424157</v>
+        <v>35.29041122424012</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.42888925073328</v>
+        <v>1.990642288968434</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.4298468403511</v>
+        <v>29.647673939007</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.43018514856655</v>
+        <v>34.01722055117595</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.42787213712814</v>
+        <v>11.326760989644</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.4285007696493</v>
+        <v>20.47700861640469</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.42884781805334</v>
+        <v>24.55696452861212</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.42805339903786</v>
+        <v>19.2724198227533</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.42865949672394</v>
+        <v>26.46061626677879</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.42902412304984</v>
+        <v>29.05767667628929</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.42880592671999</v>
+        <v>31.29039661310496</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.42930396113017</v>
+        <v>37.51440599957361</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.42952283280503</v>
+        <v>39.35101350802726</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.42887639444968</v>
+        <v>20.63815197580145</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.42968901924792</v>
+        <v>36.21478452987371</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.43002066956562</v>
+        <v>40.48273971730218</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.4292947485279</v>
+        <v>8.63917372861572</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.43026296247037</v>
+        <v>36.29586590499871</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.43066431382855</v>
+        <v>40.66548806094356</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.42823113020656</v>
+        <v>17.9756746805637</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.42888122629096</v>
+        <v>27.1260987722241</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.42925614720096</v>
+        <v>31.20612543146733</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.42843720204469</v>
+        <v>25.92151156923403</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.42906088826128</v>
+        <v>33.10984882099983</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.42944817982039</v>
+        <v>35.70694666175932</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.42917157588372</v>
+        <v>37.94005398975143</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.42967131265758</v>
+        <v>44.164069219415</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.42992251907612</v>
+        <v>46.00071648607393</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.42919948319562</v>
+        <v>27.28795482714775</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.43000985462778</v>
+        <v>42.86454466162745</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.4303975046425</v>
+        <v>47.1326306483757</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.42875244518872</v>
+        <v>-3.362336910948965</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.42928665328802</v>
+        <v>24.29203296839733</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.42942988296976</v>
+        <v>28.66109211653979</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.42832317231526</v>
+        <v>5.973655984219864</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.42862013397858</v>
+        <v>15.12200282577571</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.42880930727431</v>
+        <v>19.20168699126764</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.42848665880996</v>
+        <v>13.91782597318836</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.4287911794118</v>
+        <v>21.10462942764473</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.42899873770195</v>
+        <v>23.70150793838086</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.42857072193982</v>
+        <v>25.93335403574126</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.42888940073048</v>
+        <v>32.15648609008694</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.42898916447745</v>
+        <v>33.99289820432914</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.42855118145714</v>
+        <v>15.28193249247072</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.42909442502266</v>
+        <v>30.85669087813749</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.42923582424157</v>
+        <v>35.12411693270319</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.42888925073328</v>
+        <v>1.824414418136644</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.4298468403511</v>
+        <v>29.48145411621993</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.43018514856655</v>
+        <v>33.8509968665898</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.42787213712814</v>
+        <v>11.16052576192094</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.4285007696493</v>
+        <v>20.31077305726778</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.42884781805334</v>
+        <v>24.39073362501215</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.42805339903786</v>
+        <v>19.10618705520317</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.42865949672394</v>
+        <v>26.29438472189831</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.42902412304984</v>
+        <v>28.89144582447425</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.42880592671999</v>
+        <v>31.12418817764562</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.42930396113017</v>
+        <v>37.34819666733942</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.42952283280503</v>
+        <v>39.18480410665966</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.42887639444968</v>
+        <v>20.47194955742309</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.42968901924792</v>
+        <v>36.04857823943659</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.43002066956562</v>
+        <v>40.31653368920608</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.4292947485279</v>
+        <v>8.472974286081286</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.43026296247037</v>
+        <v>36.12967451162187</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.43066431382855</v>
+        <v>40.49929280588042</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.42823113020656</v>
+        <v>17.80946788324416</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.42888122629096</v>
+        <v>26.9598916439325</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.42925614720096</v>
+        <v>31.03992295869175</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.42843720204469</v>
+        <v>25.75530723157674</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.42906088826128</v>
+        <v>32.94364570661257</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.42944817982039</v>
+        <v>35.540744240465</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.42917157588372</v>
+        <v>37.77387398210583</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.42967131265758</v>
+        <v>43.99788831582252</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.42992251907612</v>
+        <v>45.83453551342579</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.42919948319562</v>
+        <v>27.12178083471433</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.43000985462778</v>
+        <v>42.69836679910831</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.4303975046425</v>
+        <v>46.96645304817439</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.42903284948409</v>
+        <v>-7.828467592492711</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.42949399730264</v>
+        <v>19.82535058690091</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.42963494519754</v>
+        <v>24.19450432786566</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.42864435197304</v>
+        <v>1.50716046959035</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.42889102747614</v>
+        <v>10.65508168130832</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.42908111099226</v>
+        <v>14.73487525670821</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.42878417669234</v>
+        <v>9.451211887339401</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.42902731744346</v>
+        <v>16.63766271721675</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.42923651125858</v>
+        <v>19.23462592055835</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.42890254096021</v>
+        <v>21.46667306094939</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.4291752833387</v>
+        <v>27.68962200415608</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.4292739343653</v>
+        <v>29.52609779618506</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.42889462454142</v>
+        <v>10.815590045154</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.42936232985273</v>
+        <v>26.38980402494376</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.42950145926719</v>
+        <v>30.65740321854314</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.42883592843635</v>
+        <v>-2.641965517830453</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.42965362236918</v>
+        <v>25.01452244229681</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.42994162016887</v>
+        <v>29.38415980312952</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.42776068355887</v>
+        <v>6.693780954824138</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.42829979223478</v>
+        <v>15.84360259797079</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.42860628479373</v>
+        <v>19.92367259367113</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.42794078292289</v>
+        <v>14.63932365905946</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.42847401077861</v>
+        <v>21.82716868255027</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.42879557350879</v>
+        <v>24.42431449325675</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.42861490505008</v>
+        <v>26.65725787375816</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.4290177903028</v>
+        <v>32.88108324188708</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.42921148920194</v>
+        <v>34.71775436679347</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.42872323713839</v>
+        <v>16.00535778863302</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.42937382065547</v>
+        <v>31.5814420292591</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.42966723204021</v>
+        <v>35.84957064114955</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.42900779123319</v>
+        <v>4.006776497825218</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.42982998639796</v>
+        <v>31.66292499586875</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.43016774953878</v>
+        <v>36.0326379007452</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.42792769272551</v>
+        <v>13.3429052435112</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.42848469047197</v>
+        <v>22.49290336278755</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.4288170056423</v>
+        <v>26.57304410411762</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.42811958156426</v>
+        <v>21.2886259976762</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.42866773248547</v>
+        <v>28.47661183648727</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.42901003581465</v>
+        <v>31.07379507810531</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.42880016637867</v>
+        <v>33.3071258342349</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.42920804443754</v>
+        <v>39.53095705149921</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.42942808004663</v>
+        <v>41.36766793142947</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.42888629343512</v>
+        <v>22.65537121020786</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.4295418132834</v>
+        <v>38.23141274649383</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.42988001235109</v>
+        <v>42.49967215233009</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.42940057723098</v>
+        <v>1.846555418422145</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.42983927719989</v>
+        <v>29.5005034168775</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.42997327194152</v>
+        <v>33.86964224810428</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.42908002443301</v>
+        <v>11.18259526849913</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.42931637684546</v>
+        <v>20.33067598518805</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.42949946830505</v>
+        <v>24.41046226972917</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.42920073885649</v>
+        <v>19.12682705272407</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.42943191076383</v>
+        <v>26.31340241509536</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.42963307181211</v>
+        <v>28.91035999410945</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.42932501896801</v>
+        <v>31.14225015143045</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.42958388979196</v>
+        <v>37.36526573540964</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.42967980871618</v>
+        <v>39.20173450438874</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.42930152601759</v>
+        <v>20.49095669162141</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.42974499318251</v>
+        <v>36.06537352091611</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.42988072251292</v>
+        <v>40.33295138299938</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.42937729098621</v>
+        <v>7.033837173620828</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.43014449865004</v>
+        <v>34.6904549523728</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.43041277093436</v>
+        <v>39.06007739377257</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.42844566665823</v>
+        <v>16.36999546482518</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.42895314260581</v>
+        <v>25.51997661373644</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.42923950453031</v>
+        <v>29.60003931084139</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.42859148595304</v>
+        <v>24.31571854644442</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.42909650282272</v>
+        <v>31.50368810464174</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.42939636936817</v>
+        <v>34.10082828425202</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.42925186053149</v>
+        <v>36.33361467414095</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.42962736644859</v>
+        <v>42.55750668385103</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.42980805171836</v>
+        <v>44.3941707810291</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.42933308432535</v>
+        <v>25.68150413597657</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.42993824896281</v>
+        <v>41.25779122855299</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.43021183906598</v>
+        <v>45.52589849695657</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.42941036130465</v>
+        <v>13.68200794591364</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.43017737067417</v>
+        <v>41.33828625360654</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.43048969324038</v>
+        <v>45.70798423990452</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.4284668472701</v>
+        <v>23.01854848721898</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.42898935654576</v>
+        <v>32.16870610476614</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.42930023534885</v>
+        <v>36.24883954898921</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.42862437576098</v>
+        <v>30.96444960536444</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.42914151735959</v>
+        <v>38.15255997302522</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.42946075954614</v>
+        <v>40.74973758428875</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.42929548536546</v>
+        <v>42.98291135696552</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.42967522571384</v>
+        <v>49.2068092123457</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.42988029776382</v>
+        <v>51.04351306496874</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.42936642108315</v>
+        <v>32.33094629309328</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.42997570860071</v>
+        <v>47.90719066907813</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.43029059209745</v>
+        <v>52.17542873318921</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.4287601685893</v>
+        <v>0.8083159447195847</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.42919376216596</v>
+        <v>28.46215722240634</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.42931193889748</v>
+        <v>32.83113283415643</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.42833878894204</v>
+        <v>10.14435502411782</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.42857207153706</v>
+        <v>19.29250403076007</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.42872528852693</v>
+        <v>23.37212264461145</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.42849012594266</v>
+        <v>18.08843032702605</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.42873164268048</v>
+        <v>25.27507939952959</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.42890359724044</v>
+        <v>27.87191023859571</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.42853477773896</v>
+        <v>30.10369909654735</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.42879615375813</v>
+        <v>36.32672184246216</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.42887471786086</v>
+        <v>38.163104149646</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.42854141433617</v>
+        <v>19.45241451290274</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.42898932636248</v>
+        <v>35.02690595228073</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.42909938844354</v>
+        <v>39.29426251500904</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.42921079253712</v>
+        <v>5.995906906379492</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.43001656840307</v>
+        <v>33.6524179481426</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.4302978036359</v>
+        <v>38.02187714882261</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.42832051321167</v>
+        <v>15.33206445355329</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.42884905088785</v>
+        <v>24.4821138763263</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.42914213926936</v>
+        <v>28.562008881822</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.42848604163099</v>
+        <v>23.27763104978742</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.42898854348973</v>
+        <v>30.46567430692396</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.42930029962343</v>
+        <v>33.0626877297904</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.42911060250855</v>
+        <v>35.29537281826667</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.42953927787431</v>
+        <v>41.51927198324658</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.42972117548344</v>
+        <v>43.35584960906264</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.42916715342394</v>
+        <v>24.64327116400084</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.42986965745587</v>
+        <v>40.21963285856525</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.43014384712233</v>
+        <v>44.48751880100478</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.42961418479868</v>
+        <v>12.64420258394164</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.43043131857258</v>
+        <v>40.30037415583631</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.43076468062953</v>
+        <v>44.66990890123354</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.4286725612573</v>
+        <v>21.98074236870996</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.42921458034928</v>
+        <v>31.13096825305904</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.42952996132795</v>
+        <v>35.21093400639113</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.42886030972178</v>
+        <v>29.92648701418323</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.42937388786093</v>
+        <v>37.11467107593687</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.42970301495222</v>
+        <v>39.71172193045747</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.42946394258606</v>
+        <v>41.94479440068828</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.42989090432499</v>
+        <v>48.1686994083871</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.43009792945152</v>
+        <v>50.00531679177406</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.4294818103848</v>
+        <v>31.2928382212405</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.4301776156192</v>
+        <v>46.86915719098288</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.4304952579397</v>
+        <v>51.13717393205893</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.42890857944998</v>
+        <v>-4.502352994746797</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.42934106197288</v>
+        <v>23.15147116329574</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.42946352141279</v>
+        <v>27.5205627600348</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.42848965063805</v>
+        <v>4.833386316231032</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.42871928129762</v>
+        <v>13.9814065584324</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.42887653785403</v>
+        <v>18.06114151345269</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.42864048861408</v>
+        <v>12.77745189327577</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.42887813431937</v>
+        <v>19.9640000663316</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.42905428619065</v>
+        <v>22.56092618477935</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.42868043637299</v>
+        <v>24.79280640610493</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.42894153807947</v>
+        <v>31.01577337356462</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.42902109634866</v>
+        <v>32.85221597621994</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.42867528983624</v>
+        <v>14.14164877312867</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.42912367539207</v>
+        <v>29.71595956032711</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.42923463915467</v>
+        <v>33.98347209407716</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.42911333565907</v>
+        <v>0.6838419879556348</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.42991787607816</v>
+        <v>28.34033593101463</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.43019956622457</v>
+        <v>32.70991113700534</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.4281764842301</v>
+        <v>10.0196997127686</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.4287030973706</v>
+        <v>19.16962039017828</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.42899861710583</v>
+        <v>23.24963175825967</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.42835525477282</v>
+        <v>17.9652565667647</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.42885548865531</v>
+        <v>25.15319893790677</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.42916931850679</v>
+        <v>27.75030765800277</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.42896161431786</v>
+        <v>29.98308411772557</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.42938740382368</v>
+        <v>36.20692751018389</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.42957154089645</v>
+        <v>38.04356544307295</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.42902226204514</v>
+        <v>19.33110942093474</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.42971972381197</v>
+        <v>34.90729047905749</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.42999755646517</v>
+        <v>39.17533242006554</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.42952984996858</v>
+        <v>7.332320567485272</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.43034726941738</v>
+        <v>34.988475050502</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.43068047692966</v>
+        <v>39.35812579612404</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.42854487768434</v>
+        <v>16.66856055446003</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.42908569663685</v>
+        <v>25.81865770579309</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.42940363570945</v>
+        <v>29.89873981659223</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.42874625941211</v>
+        <v>24.61429545739695</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.42925895926324</v>
+        <v>31.80237864252756</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.42959006252237</v>
+        <v>34.39952479172022</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.42933007599864</v>
+        <v>36.63268863839259</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.42975437522526</v>
+        <v>42.85653787878304</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.42996345520291</v>
+        <v>44.69321556682011</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.42935013099276</v>
+        <v>25.98085940810704</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.43004116404488</v>
+        <v>41.55699776183501</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.43036204318109</v>
+        <v>45.82517049469838</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.42855554310069</v>
+        <v>-1.354023750794408</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.42910103348844</v>
+        <v>26.30016070989818</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.42925889182139</v>
+        <v>30.66932250219547</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.42808847846392</v>
+        <v>7.981980459878901</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.4283799310943</v>
+        <v>17.1301252102973</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.42859227001843</v>
+        <v>21.20992896826936</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.42826184564526</v>
+        <v>15.92621579801737</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.42855399559449</v>
+        <v>23.11284308395925</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.42878744067497</v>
+        <v>25.7098094639653</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.42836496892764</v>
+        <v>27.94175515245404</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.42868884065738</v>
+        <v>34.16481761562902</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.428799055868</v>
+        <v>36.00129402761256</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.42835454140415</v>
+        <v>17.29041741643498</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.42890990174162</v>
+        <v>32.8649484611871</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.4290652775114</v>
+        <v>37.1325413929391</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.42915517558259</v>
+        <v>3.833054917928781</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.43015012838336</v>
+        <v>31.48990918296186</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.4304938257328</v>
+        <v>35.8595545900228</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.42805376347965</v>
+        <v>13.16917756355513</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.42870797445821</v>
+        <v>22.31922276244761</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.42906714882111</v>
+        <v>26.39930293453192</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.42822992866887</v>
+        <v>21.11490420920875</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.42886754704789</v>
+        <v>28.30292570194029</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.42924728231332</v>
+        <v>30.90007468373556</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.42906147727914</v>
+        <v>33.13291661718146</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.42956780135525</v>
+        <v>39.35685551354884</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.42979367628871</v>
+        <v>41.19352725524315</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.42912927890263</v>
+        <v>22.48076179899288</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.42995203626375</v>
+        <v>38.05716312325164</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.43029377735056</v>
+        <v>42.32528546592646</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.42941756076393</v>
+        <v>10.48147797709605</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.43041796600718</v>
+        <v>38.13799276981995</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.43082049497927</v>
+        <v>42.50771372221475</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.42828213941857</v>
+        <v>19.81798288166003</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.42895530535684</v>
+        <v>28.96820455112702</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.42934351380576</v>
+        <v>33.04835547071961</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.42847785913082</v>
+        <v>27.76388757081616</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.42913069016912</v>
+        <v>34.95204987533093</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.42953290365148</v>
+        <v>37.54923628866577</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.42930829609339</v>
+        <v>39.78246560614723</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.42981688548257</v>
+        <v>46.00641034880339</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.43007370445169</v>
+        <v>47.84312184656521</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.42934705504613</v>
+        <v>29.13045625995112</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.43016920014167</v>
+        <v>44.70681486934409</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.4305639464478</v>
+        <v>48.97506800892897</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.42893701698742</v>
+        <v>5.625421885290894</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.42941527472779</v>
+        <v>33.27961521888305</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.42954721943718</v>
+        <v>37.64865928041858</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.42853119103378</v>
+        <v>14.96175647948023</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.4287884510437</v>
+        <v>24.11007617154762</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.42896112562907</v>
+        <v>28.18976387759965</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.42868296625024</v>
+        <v>22.90602277415467</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.42894807245152</v>
+        <v>30.09281150683175</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.42914004177049</v>
+        <v>32.68969143910742</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.42874295638014</v>
+        <v>34.92142279839179</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.42903020472015</v>
+        <v>41.14453488736881</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.42911909378515</v>
+        <v>42.98094554326171</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.42872356598891</v>
+        <v>24.2699292864974</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.42921576424154</v>
+        <v>39.84466354276633</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.42934055491573</v>
+        <v>44.11208803576237</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.42925156081296</v>
+        <v>10.81223548619407</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.43012854557553</v>
+        <v>38.46909861184706</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.43043336776722</v>
+        <v>42.83862626500029</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.42831468488221</v>
+        <v>20.14868852346665</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.42889071739487</v>
+        <v>29.29890865667248</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.42920944123177</v>
+        <v>33.37887275670873</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.42848377903682</v>
+        <v>28.09444611070733</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.42903431424766</v>
+        <v>35.28262904663011</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.429371872196</v>
+        <v>37.87969156381364</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.42917188312298</v>
+        <v>40.112319173741</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.42963413502423</v>
+        <v>46.33630769078904</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.42983268131249</v>
+        <v>48.17291366735712</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.42922220984203</v>
+        <v>29.46000859431745</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.42997821377613</v>
+        <v>45.03661312751471</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.43027781725594</v>
+        <v>49.30456700446614</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.42964014171497</v>
+        <v>17.46013674388375</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.43052896022333</v>
+        <v>45.11666039400238</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.4308896007389</v>
+        <v>49.48626358832648</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.42865272530356</v>
+        <v>26.79697201137281</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.42924504097168</v>
+        <v>35.94736860770438</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.42958853294797</v>
+        <v>40.02740345325189</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.42884571031812</v>
+        <v>34.74290763859692</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.42941026060598</v>
+        <v>41.93123137953494</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.42976696645491</v>
+        <v>44.528331326643</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.42951370528468</v>
+        <v>46.76134633437725</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.42997531462028</v>
+        <v>52.98534069346549</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.43020146032304</v>
+        <v>54.82198642673318</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.42952476870875</v>
+        <v>36.10918123989988</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.43027539356391</v>
+        <v>51.68574304684653</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.43062261640599</v>
+        <v>55.95382772081216</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.42876958498523</v>
+        <v>-7.641902103655138</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.42925851089072</v>
+        <v>20.01160183899986</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.42939071883518</v>
+        <v>24.38058579183023</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.42832223593074</v>
+        <v>1.693472541339293</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.42859496607304</v>
+        <v>10.84151160872846</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.4287660198266</v>
+        <v>14.92111014382742</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.4284857136464</v>
+        <v>9.63738897417868</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.42876665534896</v>
+        <v>16.82394055945024</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.42895538176661</v>
+        <v>19.42077944559678</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.42854817782677</v>
+        <v>21.65259300215114</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.42884121295653</v>
+        <v>27.87550980607266</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.42893063126074</v>
+        <v>29.71189346773308</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.42854008419922</v>
+        <v>11.0015744931133</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.42903954940475</v>
+        <v>26.57575911166616</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.42916588009716</v>
+        <v>30.84312783479384</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.42883414516533</v>
+        <v>-2.455714375082447</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.4297198700023</v>
+        <v>25.20045931819384</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.43003330812431</v>
+        <v>29.56992687553855</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.42783074259987</v>
+        <v>6.879778703508851</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.42841030872941</v>
+        <v>16.02971817589496</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.42873236966748</v>
+        <v>20.10959312283039</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.42802145355214</v>
+        <v>14.8251863898128</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.42857629491363</v>
+        <v>22.01313215249563</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.42891509953334</v>
+        <v>24.61015364026268</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.42868516953884</v>
+        <v>26.8428634212368</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.42914858353227</v>
+        <v>33.06665663838798</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.42935204626599</v>
+        <v>34.90323562739995</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.42875773436075</v>
+        <v>16.1910278580239</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.42951528454058</v>
+        <v>31.76708272710623</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.4298237034478</v>
+        <v>36.03498085061203</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.42923201449648</v>
+        <v>4.192860945943199</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.43012870791071</v>
+        <v>31.84869518122075</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.43050045289424</v>
+        <v>36.21823827973974</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.42817415712707</v>
+        <v>13.52873628568675</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.42877291925655</v>
+        <v>22.67885222110549</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.42912004920695</v>
+        <v>26.75879791190987</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.42839102569724</v>
+        <v>21.47432202197972</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.42896202958189</v>
+        <v>28.6624085917595</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.42932063173364</v>
+        <v>31.25946751025031</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.42903234383341</v>
+        <v>33.49256466528975</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.42949551599078</v>
+        <v>39.71636372817629</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.42972859590559</v>
+        <v>41.55298247388082</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.42906380238281</v>
+        <v>22.84087456330478</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.42981596693536</v>
+        <v>38.41688672668231</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.4301758279979</v>
+        <v>42.68491564438015</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.42867294946178</v>
+        <v>-3.837815444175089</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.42918570771076</v>
+        <v>23.81607482992597</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.4293196163523</v>
+        <v>28.18503060254027</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.42824143391666</v>
+        <v>5.497924688317358</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.42852882213393</v>
+        <v>14.64612744079607</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.42870517440835</v>
+        <v>18.72568833096937</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.42840301782884</v>
+        <v>13.44194137705488</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.42869861912558</v>
+        <v>20.62862692868764</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.4288931103921</v>
+        <v>23.22542231335449</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.4284831676453</v>
+        <v>25.45718676027234</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.4287895838923</v>
+        <v>31.68022051346661</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.42888298029238</v>
+        <v>33.51658277709912</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.42847694273314</v>
+        <v>14.80593291524376</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.42899865740679</v>
+        <v>30.38043879984257</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.4291311606932</v>
+        <v>34.64774644193226</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.42889486889821</v>
+        <v>1.349299060758018</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.42981576020377</v>
+        <v>29.00585910645502</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.43014129639789</v>
+        <v>33.37529847648527</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.42790753142864</v>
+        <v>10.68515765425393</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.42851285470892</v>
+        <v>19.83526082238818</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.42884449840372</v>
+        <v>23.91509811210976</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.42808550295533</v>
+        <v>18.63066562940087</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.42866711931722</v>
+        <v>25.81874536593039</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.42901663077117</v>
+        <v>28.4157233410778</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.42880751339737</v>
+        <v>30.64838402343269</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.42929035222031</v>
+        <v>36.8722941964234</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.4294992814053</v>
+        <v>38.70885178212829</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.4288793036157</v>
+        <v>19.99631311279238</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.42966807884526</v>
+        <v>35.57268925900136</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.42998459976279</v>
+        <v>39.8405262887624</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.42930611836543</v>
+        <v>7.997882214331799</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.43023750472194</v>
+        <v>35.65410279213818</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.43062396414885</v>
+        <v>40.02361770794748</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.42826987885039</v>
+        <v>17.33412305433687</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.42889489875787</v>
+        <v>26.48440268206439</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.42925250982062</v>
+        <v>30.56431072032926</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.42847217679748</v>
+        <v>25.27980908705279</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.42906948596566</v>
+        <v>32.46802962772465</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.42944014731465</v>
+        <v>35.06504503536546</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.42917489801585</v>
+        <v>37.29809309672707</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.42965864236927</v>
+        <v>43.52200911261325</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.42989817259819</v>
+        <v>45.35860645713301</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.42920467110773</v>
+        <v>26.64616765592284</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.4299901304209</v>
+        <v>42.22250108197925</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.43035979400617</v>
+        <v>46.49046891202322</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.42886578751709</v>
+        <v>-6.704029822286611</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.42935805470373</v>
+        <v>20.94970783632998</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.4294898263314</v>
+        <v>25.31867867845522</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.42844729042501</v>
+        <v>2.631497584414934</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.42872151737578</v>
+        <v>11.77957994192564</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.42889312262565</v>
+        <v>15.85917863095658</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.42860053203378</v>
+        <v>10.57547124215164</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.42888361237159</v>
+        <v>17.76206539328796</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.4290722174621</v>
+        <v>20.35889122512508</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.42867933832398</v>
+        <v>22.59073200848995</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.42897407997369</v>
+        <v>28.81369723421669</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.42906379070036</v>
+        <v>30.65007319718318</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.42866719012675</v>
+        <v>11.93963555992257</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.42916958312261</v>
+        <v>27.51395767370791</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.429296323917</v>
+        <v>31.78130249126439</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.42891054110914</v>
+        <v>-1.517689411606352</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.42979630983254</v>
+        <v>26.1387180185905</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.43011451566193</v>
+        <v>30.50817245983517</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.4279301190588</v>
+        <v>7.817956421338682</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.4285112466814</v>
+        <v>16.96793919664065</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.42883764594694</v>
+        <v>21.04781428879783</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.42811557031629</v>
+        <v>15.76342135020711</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.42867249739366</v>
+        <v>22.95140968727826</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.4290159010394</v>
+        <v>25.54841811290014</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.4287836759409</v>
+        <v>27.78115512462357</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.42924780487118</v>
+        <v>34.00499676952352</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.42945291238813</v>
+        <v>35.84156805669538</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.42885069698043</v>
+        <v>17.12924161321796</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.42960912175663</v>
+        <v>32.7054339913032</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.4299196044876</v>
+        <v>36.97330820147208</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.42934515628976</v>
+        <v>5.131023365222678</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.43024379754096</v>
+        <v>32.78709133711861</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.43062180442694</v>
+        <v>37.15662131967945</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.42832198736249</v>
+        <v>14.46705145601543</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.42892364070803</v>
+        <v>23.61721069752371</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.42927486988073</v>
+        <v>27.69715653348571</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.42853052107427</v>
+        <v>22.41269444322659</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.42910483351144</v>
+        <v>29.60082358987829</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.42946854311632</v>
+        <v>32.19786944530487</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.42917889428477</v>
+        <v>34.43099383023234</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.42964420259088</v>
+        <v>40.65484132120518</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.42987944256802</v>
+        <v>42.49145236566874</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.42920174970568</v>
+        <v>23.77922577891734</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.42995720396342</v>
+        <v>39.35537545009144</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.4303201912804</v>
+        <v>43.62338045493622</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.42876581112052</v>
+        <v>-10.25923727645597</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.42923599974184</v>
+        <v>17.39389591253375</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.42935864879817</v>
+        <v>21.76276498329507</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.4283410987396</v>
+        <v>-0.924127329906991</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.42860438255033</v>
+        <v>8.223745466709762</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.42876325572556</v>
+        <v>12.30322435958219</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.42849343675768</v>
+        <v>7.0196179408719</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.42876616527288</v>
+        <v>14.20604481964522</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.42894199618557</v>
+        <v>16.80279021429708</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.42856539742549</v>
+        <v>19.03461086220539</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.42884746244971</v>
+        <v>25.25744116395815</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.42893066578065</v>
+        <v>27.09376951446409</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.42856750979743</v>
+        <v>8.383791348996898</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.42904792748994</v>
+        <v>23.9577532819548</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.42916547976568</v>
+        <v>28.22498877066748</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.42891609706623</v>
+        <v>-5.072659067600238</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.42976592070073</v>
+        <v>22.58314384092334</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.43007110808347</v>
+        <v>26.95249650795624</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.42796194062559</v>
+        <v>4.262569314435883</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.42851976355396</v>
+        <v>13.41234248740072</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.42883133765018</v>
+        <v>17.49209778302718</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.42814349279562</v>
+        <v>12.20780583205913</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.42867615888792</v>
+        <v>19.39562686808499</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.42900503594674</v>
+        <v>21.99255485715166</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.42878347489937</v>
+        <v>24.22527170558412</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.42923226765786</v>
+        <v>30.44897840936226</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.42942813319912</v>
+        <v>32.28550208233735</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.42885248373333</v>
+        <v>13.57363513955572</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.42958680640501</v>
+        <v>29.14946729984426</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.42988333746479</v>
+        <v>33.41723217674443</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.42935789394482</v>
+        <v>1.576237085183653</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.43022055024221</v>
+        <v>29.23170054492987</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.43058347822763</v>
+        <v>33.60112875472298</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.42836034248944</v>
+        <v>10.91184772573336</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.42893701742732</v>
+        <v>20.06179736095173</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.42927142842968</v>
+        <v>24.14162340147259</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.42856408720136</v>
+        <v>18.85726230652738</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.42911236666191</v>
+        <v>26.0452241492706</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.42945983966482</v>
+        <v>28.6421895691763</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.42918393273998</v>
+        <v>30.87529377549156</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.42963315384903</v>
+        <v>37.09900632570286</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.42985729636031</v>
+        <v>38.93556975621861</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.42920934985291</v>
+        <v>20.22380265958343</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.42993969901427</v>
+        <v>35.7995921160056</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.4302856738785</v>
+        <v>40.06748778749754</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.42864622286749</v>
+        <v>-4.282326196097824</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.42918656162437</v>
+        <v>23.37183432380566</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.42934673232648</v>
+        <v>27.74105077247446</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.42817748698609</v>
+        <v>5.053570219422614</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.42846494322117</v>
+        <v>14.20164858661581</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.42867772649871</v>
+        <v>18.28150449645834</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.42834974550573</v>
+        <v>12.99776933704736</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.42863764243922</v>
+        <v>20.18434743033804</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.4288719335949</v>
+        <v>22.78135461210632</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.42845605921286</v>
+        <v>25.013352308769</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.42877723646537</v>
+        <v>31.23638929168594</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.42888670581393</v>
+        <v>33.07289179297975</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.4284416430812</v>
+        <v>14.3620749011124</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.42899282599996</v>
+        <v>29.9365231824542</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.42914669717978</v>
+        <v>34.20418619275567</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.42888197151593</v>
+        <v>0.9039579252773144</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.42987198430508</v>
+        <v>28.56078825450168</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.43021275580146</v>
+        <v>32.93048832643971</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.4277198121633</v>
+        <v>10.23997274780384</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.42836923638228</v>
+        <v>19.38995156893172</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.42872782322524</v>
+        <v>23.47008390264721</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.42791117996299</v>
+        <v>18.18566316183699</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.42854399756154</v>
+        <v>25.37363546546435</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.428922368017</v>
+        <v>27.97082525628689</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.42872584438161</v>
+        <v>30.20371920735458</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.42922717682533</v>
+        <v>36.42763262488272</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.42945304594071</v>
+        <v>38.26433046118056</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.42881234022323</v>
+        <v>19.55162472565569</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.42962675532289</v>
+        <v>35.12794328924717</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.429968611103</v>
+        <v>39.39613572291334</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.42914880123692</v>
+        <v>7.552475306553948</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.43014543160688</v>
+        <v>35.20896616803479</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.43054446819987</v>
+        <v>39.57874178341494</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.4279574961296</v>
+        <v>16.88887239884109</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.42862658034875</v>
+        <v>26.03902769644064</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.42901352143301</v>
+        <v>30.1192307760346</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.42816868327152</v>
+        <v>24.83474085806113</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.42881782178983</v>
+        <v>32.02285397743712</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.42921787486402</v>
+        <v>34.6200811993845</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.42898085895336</v>
+        <v>36.85336253688517</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.42948464517935</v>
+        <v>43.07728180284123</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.42974086498451</v>
+        <v>44.91401939451536</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.42903718265137</v>
+        <v>26.20141352410103</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.42985118925684</v>
+        <v>41.77768938155059</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.43024507879198</v>
+        <v>46.0460126097767</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.42877045676992</v>
+        <v>-5.391305246721412</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.42926954595677</v>
+        <v>22.26238806858457</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.42940041975641</v>
+        <v>26.6313573746542</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.42834173267159</v>
+        <v>3.944281684167823</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.42862637920615</v>
+        <v>13.09241830790784</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.42879672386715</v>
+        <v>17.17199321300977</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.42850100498683</v>
+        <v>11.88824417975768</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.42879378293231</v>
+        <v>19.07487357350242</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.42898021479008</v>
+        <v>21.67168988141389</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.42857928275277</v>
+        <v>23.90346279334806</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.42887648088128</v>
+        <v>30.12643923434227</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.42896675490508</v>
+        <v>31.96280908747888</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.42857348445611</v>
+        <v>13.25232953094831</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.42907804822959</v>
+        <v>28.82668295167052</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.42920623941706</v>
+        <v>33.09401146620341</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.42877064096029</v>
+        <v>-0.2049335440068027</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.4296529387035</v>
+        <v>27.45142952816018</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.42997211504432</v>
+        <v>31.82088243225876</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.42777662519277</v>
+        <v>9.130771824384443</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.42835678044369</v>
+        <v>18.28080885545437</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.42868000966383</v>
+        <v>22.3606601637428</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.42796419490529</v>
+        <v>17.07622558390692</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.42852302942477</v>
+        <v>24.26424915622413</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.42886121462769</v>
+        <v>26.8612480580761</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.42862702029909</v>
+        <v>29.09391720276988</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.42908703293579</v>
+        <v>35.31777005867086</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.42929180270086</v>
+        <v>37.15433523538165</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.4287050827745</v>
+        <v>18.44196688459731</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.42945572455908</v>
+        <v>34.01819055892808</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.42976654703029</v>
+        <v>38.28604846451451</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.42917754589157</v>
+        <v>6.443596334855261</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.43007070297343</v>
+        <v>34.09961994403345</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.43044943098989</v>
+        <v>38.46914839061394</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.42814010749692</v>
+        <v>15.77968395396322</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.4287419806859</v>
+        <v>24.92989744560787</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.42909054905411</v>
+        <v>29.00981949926431</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.42835167840242</v>
+        <v>23.72531576706722</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.4289281712794</v>
+        <v>30.91348014455757</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.42928747632438</v>
+        <v>33.51051647709896</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.42899453832961</v>
+        <v>35.74357299865248</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.42945675721328</v>
+        <v>41.96743169884807</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.42969231871209</v>
+        <v>43.80403663277188</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.4290297633907</v>
+        <v>25.09176814599862</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.42977906753496</v>
+        <v>40.66794910764092</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.43014349828445</v>
+        <v>44.93593780946689</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.4298689498158</v>
+        <v>5.568578554626516</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.4302873011436</v>
+        <v>33.22299657006606</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.43041781031987</v>
+        <v>37.59220705529292</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.42962791569866</v>
+        <v>14.90496138727751</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.42985270715413</v>
+        <v>24.05324635886057</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.43003188014292</v>
+        <v>28.13310488293012</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.42972700617088</v>
+        <v>22.84936911956258</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.42994600844634</v>
+        <v>30.03610951129365</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.43014233245428</v>
+        <v>32.63311513757951</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.42986094069786</v>
+        <v>34.86496786331706</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.43010764615701</v>
+        <v>41.08810229968064</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.43020136141207</v>
+        <v>42.92460150892195</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.42981407408099</v>
+        <v>24.21342788125246</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.43023692747708</v>
+        <v>39.78816117982539</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.43036950217954</v>
+        <v>44.05580914583986</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.42953012864298</v>
+        <v>10.75539931053816</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.43024992146046</v>
+        <v>38.412487143174</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.43050222507005</v>
+        <v>42.78218124193329</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.4286671611322</v>
+        <v>20.09190057214953</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.42914548141574</v>
+        <v>29.24208600505851</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.42941728521004</v>
+        <v>33.3222209428606</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.42880017586541</v>
+        <v>28.03779961269122</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.42927836401674</v>
+        <v>35.22593422094216</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.42956160909391</v>
+        <v>37.82312244780353</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.42942712740515</v>
+        <v>40.05587142934876</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.42977656471749</v>
+        <v>46.27988230409271</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.42994755171245</v>
+        <v>48.11657684319896</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.42950368458627</v>
+        <v>29.40351436552776</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.43006537335947</v>
+        <v>44.98011795387531</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.4303240683557</v>
+        <v>49.24829533065501</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.42952496348237</v>
+        <v>17.40335649577144</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.43024408916312</v>
+        <v>45.06010484968515</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.43053763343911</v>
+        <v>49.4298744918829</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.42865501708623</v>
+        <v>26.74024000308025</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.42914764839658</v>
+        <v>35.89060190579691</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.42944347002445</v>
+        <v>39.97080759042835</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.42879867481307</v>
+        <v>34.68631707614934</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.42928871601008</v>
+        <v>41.87459249483258</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.4295912386009</v>
+        <v>44.47181815274421</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.42943619613843</v>
+        <v>46.70495453080359</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.42979045350479</v>
+        <v>52.92897125027439</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.42998460305747</v>
+        <v>54.76570554491018</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.42950463441904</v>
+        <v>36.05274295024871</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.43007175654263</v>
+        <v>51.62930381880771</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.43036945394073</v>
+        <v>55.89761199170464</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.43009314460488</v>
+        <v>-0.5301345510241156</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.43012745258203</v>
+        <v>27.12340810368066</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.43016902105881</v>
+        <v>31.49252909412796</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.42996709412636</v>
+        <v>8.805690031262134</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.42996396505788</v>
+        <v>17.95357400406515</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.43001243837446</v>
+        <v>22.03334641116867</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.43004074562961</v>
+        <v>16.74978723432848</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.43003211802681</v>
+        <v>23.93620923643953</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.43009030532271</v>
+        <v>26.53316180187499</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.42992453699473</v>
+        <v>28.7650895402209</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.42995500684477</v>
+        <v>34.98799589680191</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.4299712577055</v>
+        <v>36.82446011039853</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.42994739346511</v>
+        <v>18.11400523395666</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.43000774941848</v>
+        <v>33.68812966563728</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.43002662197165</v>
+        <v>37.95570036041117</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.43007552666356</v>
+        <v>4.656512962410194</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.43017413896198</v>
+        <v>32.31272536197928</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.43021829822572</v>
+        <v>36.68232996120121</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.42994906955633</v>
+        <v>13.9924559587859</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.43001550079661</v>
+        <v>23.14224033996316</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.43008863746181</v>
+        <v>27.22228916085105</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.42996250203796</v>
+        <v>21.93804443250922</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.43003104371176</v>
+        <v>29.12586061119548</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.43009563794731</v>
+        <v>31.72299577858705</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.4300299370648</v>
+        <v>33.95581974527128</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.43006415803832</v>
+        <v>40.17960251594313</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.43011779646992</v>
+        <v>42.01626205787038</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.43010773018432</v>
+        <v>23.30391837733957</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.43015897459875</v>
+        <v>38.87991304525342</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.43024320885823</v>
+        <v>43.14801314629487</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.42996346596133</v>
+        <v>11.30467049020733</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.43006145561658</v>
+        <v>38.96054342572636</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.43011298898747</v>
+        <v>43.33022356776557</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.42981725249912</v>
+        <v>20.64099573754122</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.42988601195569</v>
+        <v>29.79095658982947</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.42996456229523</v>
+        <v>33.87107615577638</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.42983505496392</v>
+        <v>28.58676224658523</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.42990586003116</v>
+        <v>35.77471923622947</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.429976675759</v>
+        <v>38.3718918339553</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.42989499497716</v>
+        <v>40.60510317793926</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.429930375215</v>
+        <v>46.82889179573117</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.42998536362198</v>
+        <v>48.66559109213681</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.42997596770699</v>
+        <v>29.95334727875018</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.43002878095422</v>
+        <v>45.52929923658387</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.43011424707947</v>
+        <v>49.79753012989993</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.42900368100166</v>
+        <v>-2.433886249161286</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.42951083771726</v>
+        <v>25.22067683088737</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.42965051340099</v>
+        <v>29.58983428922186</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.42861683094753</v>
+        <v>6.902156640522367</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.42890692800696</v>
+        <v>16.05054491192975</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.42908896863618</v>
+        <v>20.13031278890132</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.42876373332443</v>
+        <v>14.84644250622926</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.42905729652949</v>
+        <v>22.03326587068391</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.42925618804625</v>
+        <v>24.63020922748392</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.4288789216275</v>
+        <v>26.86207464915531</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.42917810564916</v>
+        <v>33.08524464569602</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.42927414568057</v>
+        <v>34.92170283223133</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.42886222367476</v>
+        <v>16.210572960384</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.42936968769677</v>
+        <v>31.78540141950753</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.4295059311371</v>
+        <v>36.05294315932342</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.42881028087693</v>
+        <v>2.752813796623219</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.42968015990396</v>
+        <v>30.41004671330352</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.42999978213916</v>
+        <v>34.77968778679637</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.42775430826718</v>
+        <v>12.08897512591391</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.42832958542735</v>
+        <v>21.23926386540954</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.42865707897007</v>
+        <v>25.31930815603339</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.42794627098351</v>
+        <v>20.03475230624388</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.42850993628024</v>
+        <v>27.22296989298438</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.42885007866087</v>
+        <v>29.82009585058886</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.42861021263867</v>
+        <v>32.05285753612218</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.42905201287407</v>
+        <v>38.27690397503879</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.42925975834032</v>
+        <v>40.11355749167824</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.4286957910997</v>
+        <v>21.40053876367817</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.4294124422786</v>
+        <v>36.97723753059397</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.4297279040292</v>
+        <v>41.24530868072149</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.42909557036866</v>
+        <v>9.401325051810023</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.42997351545892</v>
+        <v>37.05821849158683</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.43035081212453</v>
+        <v>41.42793511034078</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.42801856973195</v>
+        <v>18.73786864093124</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.42861662070276</v>
+        <v>27.88833384826301</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.42897136854381</v>
+        <v>31.96844888705634</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.42822809682698</v>
+        <v>26.68382387151921</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.42881049982515</v>
+        <v>33.87218226836778</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.42917398819204</v>
+        <v>36.4693456582708</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.42888612917958</v>
+        <v>38.70249473613437</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.42933339188045</v>
+        <v>44.92654701977669</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.42957194979168</v>
+        <v>46.76324029435379</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.4289381040105</v>
+        <v>28.05032143934629</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.42965933839838</v>
+        <v>43.62697748964676</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.43002788258526</v>
+        <v>47.89517943951698</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.42936916062626</v>
+        <v>-4.825262969136201</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.42979409613609</v>
+        <v>22.82827011533543</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.4299272827164</v>
+        <v>27.19738252231143</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.42901616816715</v>
+        <v>4.51038168441703</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.42924253679741</v>
+        <v>13.65826330583552</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.42942005300932</v>
+        <v>17.73802004686188</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.42914139248247</v>
+        <v>12.45439076373389</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.42936393290189</v>
+        <v>19.64081765548149</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.42955915380066</v>
+        <v>22.23776246107814</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.42925868945898</v>
+        <v>24.46969516266374</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.42951113509796</v>
+        <v>30.69259215787047</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.42960214152958</v>
+        <v>32.52905024499618</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.42924119047405</v>
+        <v>13.81865664651689</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.4296746109363</v>
+        <v>29.39275828866601</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.42980241994774</v>
+        <v>33.66031465999451</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.42894044397334</v>
+        <v>0.3610509557568555</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.42969816270714</v>
+        <v>28.01725379602799</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.42996429789417</v>
+        <v>32.38684981525107</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.42791022759358</v>
+        <v>9.6968140248586</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.42840939928828</v>
+        <v>18.84659606218763</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.42869300348661</v>
+        <v>22.92662922214975</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.42808773394435</v>
+        <v>17.64231436945595</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.42857965316154</v>
+        <v>24.83013544388819</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.42887717425329</v>
+        <v>27.42726285568328</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.42870101468535</v>
+        <v>29.6600917894322</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.42907500273575</v>
+        <v>35.88386520165197</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.42925290988257</v>
+        <v>37.72051861992047</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.42880387886136</v>
+        <v>19.0082362143866</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.42940813334087</v>
+        <v>34.58420810285286</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.42967704224546</v>
+        <v>38.8522938863495</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.42909955932722</v>
+        <v>7.009441554521732</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.42986321529192</v>
+        <v>34.66530493615407</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.43017244248596</v>
+        <v>39.03497649664057</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.42806814011574</v>
+        <v>16.34558688899022</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.42858460717659</v>
+        <v>25.49554539983039</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.42889036745371</v>
+        <v>29.57564930391452</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.42825541245118</v>
+        <v>24.29126527410965</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.42876258884007</v>
+        <v>31.47922716187525</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.42907709729135</v>
+        <v>34.076392003988</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.42887783648159</v>
+        <v>36.30960831783766</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.42925622525063</v>
+        <v>42.53338757853776</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.429457812323</v>
+        <v>44.37008075119461</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.4289609144315</v>
+        <v>25.65789820821663</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.42956915011294</v>
+        <v>41.23382739326728</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.42987857452458</v>
+        <v>45.50204396809924</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.43007954783371</v>
+        <v>-1.948869171699538</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.43011224531819</v>
+        <v>25.7045624669302</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.43015317403929</v>
+        <v>30.07369027155828</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.42995009560737</v>
+        <v>7.386876958701738</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.42994649810585</v>
+        <v>16.53470205341471</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.42999398470817</v>
+        <v>20.61448091858954</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.43002419616356</v>
+        <v>15.3309243555165</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.43001509159488</v>
+        <v>22.51730008501413</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.43007224732602</v>
+        <v>25.11425999900807</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.42990752922174</v>
+        <v>27.34620990881028</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.42993709174959</v>
+        <v>33.56908422640315</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.42995283223893</v>
+        <v>35.40555301744614</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.42993200720464</v>
+        <v>16.69519118031433</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.4299907124281</v>
+        <v>32.26922588258246</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.430008866776</v>
+        <v>36.53681165093319</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.43004436825069</v>
+        <v>3.237527809555264</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.43013962668981</v>
+        <v>30.89362918476631</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.43018293989068</v>
+        <v>35.26324060040911</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.42991516895352</v>
+        <v>12.57339234665749</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.42997937842442</v>
+        <v>21.72311784473395</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.43005156993082</v>
+        <v>25.80317312689049</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.42992999904405</v>
+        <v>20.51893100430123</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.42999622754993</v>
+        <v>27.70670090732169</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.43005980598163</v>
+        <v>30.30384342587518</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.42999360647297</v>
+        <v>32.53668956310814</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.43002620633681</v>
+        <v>38.76044029270058</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.43007928340553</v>
+        <v>40.59710441362556</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.430073530138</v>
+        <v>21.88485377828413</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.43012218091812</v>
+        <v>37.46075871097621</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.43020557999214</v>
+        <v>41.72887388911583</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.42993093590181</v>
+        <v>9.885716699602359</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.43002563991694</v>
+        <v>37.54147861335939</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.43007592448112</v>
+        <v>41.91116557104185</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.42978109543472</v>
+        <v>19.22196349205221</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.42984757391768</v>
+        <v>28.37186546237233</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.42992488974393</v>
+        <v>32.45199148900126</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.42980045824496</v>
+        <v>27.16768018445935</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.42986893843364</v>
+        <v>34.35559089910741</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.42993847597451</v>
+        <v>36.95277084795786</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.42985618390531</v>
+        <v>39.1860043615831</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.42988985563896</v>
+        <v>45.40976093902798</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.42994411302349</v>
+        <v>47.24646481389929</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.42993939468597</v>
+        <v>28.53431404366363</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.42998946357717</v>
+        <v>44.11017626914251</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.4300738367325</v>
+        <v>48.37842223890873</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.42888773946538</v>
+        <v>1.248330908966114</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.42941231236207</v>
+        <v>28.90235544841714</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.42956738416503</v>
+        <v>33.27149722785059</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.42845684098616</v>
+        <v>10.58444041629803</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.42873646948472</v>
+        <v>19.73252681955141</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.42894228542609</v>
+        <v>23.8123224719996</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.42861560364252</v>
+        <v>18.52863976312067</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.42889693321316</v>
+        <v>25.71523378024783</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.42912333795257</v>
+        <v>28.31219732466996</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.42872525802732</v>
+        <v>30.5440530134312</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.42903716825193</v>
+        <v>36.76707286606033</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.42914297956155</v>
+        <v>38.60353958102819</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.42870121961258</v>
+        <v>19.89274002821815</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.42923631235714</v>
+        <v>35.4671842588895</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.42938499129889</v>
+        <v>39.7347520052114</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.42890091026834</v>
+        <v>6.434795484011989</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.429853319128</v>
+        <v>34.09148981619335</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.43018503915089</v>
+        <v>38.46111520440688</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.42777431139216</v>
+        <v>15.77102341268135</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.42840024501934</v>
+        <v>24.92101025693994</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.42875036385924</v>
+        <v>29.00108232134828</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.42796578558749</v>
+        <v>23.71671404644797</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.42857493395555</v>
+        <v>30.9047022645721</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.42894401181233</v>
+        <v>33.50184840832689</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.42873738003552</v>
+        <v>35.73460034267571</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.42922092708374</v>
+        <v>41.95849662331504</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.42944078932202</v>
+        <v>43.79515866753347</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.42882110658515</v>
+        <v>25.08247028729845</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.42960666852101</v>
+        <v>40.65878479052803</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.42993914476092</v>
+        <v>44.92688194271936</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.42920121490952</v>
+        <v>13.08296709556764</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.43016214215073</v>
+        <v>40.73932196009018</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.43055182200735</v>
+        <v>45.10902288923812</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.42804949387632</v>
+        <v>22.41957727332458</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.42869512711332</v>
+        <v>31.56974059108227</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.4290730168487</v>
+        <v>35.64988339938888</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.42826016091562</v>
+        <v>30.36544594872514</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.42888621550848</v>
+        <v>37.5535749796549</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.42927689206971</v>
+        <v>40.1507585528074</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.42902626226475</v>
+        <v>42.38389787720205</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.42951255046597</v>
+        <v>48.60780000504558</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.42976235865273</v>
+        <v>50.44450180438723</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.42907649783375</v>
+        <v>31.7319132961715</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.42986222918003</v>
+        <v>47.30818508879354</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.43024609257277</v>
+        <v>51.57641303393636</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.42900124704326</v>
+        <v>-0.9889051808733704</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.42952770415194</v>
+        <v>26.66566477252825</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.42967626214708</v>
+        <v>31.03483774433964</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.42860809691821</v>
+        <v>8.347222700935777</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.4289037092842</v>
+        <v>17.49561126935366</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.42909913106029</v>
+        <v>21.57540009361462</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.42875883536768</v>
+        <v>16.29153397764815</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.42905671113841</v>
+        <v>23.47835754462567</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.42927039911287</v>
+        <v>26.07531577064792</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.4288791829949</v>
+        <v>28.30717381295624</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.42919030783134</v>
+        <v>34.53034641734182</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.4292929959955</v>
+        <v>36.36681405155734</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.42885408634564</v>
+        <v>17.65564858946907</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.42938346661875</v>
+        <v>33.2304836378551</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.42952893964591</v>
+        <v>37.49804787783005</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.42886868367814</v>
+        <v>4.19783437008498</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.42978442974023</v>
+        <v>31.85507415940065</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.43011450930117</v>
+        <v>36.22473074674581</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.42778730537144</v>
+        <v>13.53408069227924</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.42839188558546</v>
+        <v>22.68436972956515</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.42873280401822</v>
+        <v>26.76443496856318</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.42797674699699</v>
+        <v>21.47988328365357</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.42856913730905</v>
+        <v>28.6681010738195</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.42892433136564</v>
+        <v>31.2652419009891</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.42869868348723</v>
+        <v>33.49799620653555</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.42916244836732</v>
+        <v>39.72204525361694</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.42937812393532</v>
+        <v>41.55870821835906</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.42878240376197</v>
+        <v>22.84565389917968</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.42953461500429</v>
+        <v>38.42235925440973</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.42986176666837</v>
+        <v>42.6904529051847</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.42912579954888</v>
+        <v>10.84623014221386</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.43004855062026</v>
+        <v>38.50313045370847</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.4304366483597</v>
+        <v>42.87286258574993</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.42801932378892</v>
+        <v>20.18285872091785</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.42864602425447</v>
+        <v>29.33332422619201</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.42901518281155</v>
+        <v>33.41346021313397</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.42822751829555</v>
+        <v>28.12883935930693</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.42883809991641</v>
+        <v>35.31719795948736</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.4292167660883</v>
+        <v>37.91437621874336</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.4289449124693</v>
+        <v>40.14751791884866</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.42941353605882</v>
+        <v>46.37157281007232</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.42966044354332</v>
+        <v>48.2082755323501</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.42899740196754</v>
+        <v>29.49532108920078</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.42975318562778</v>
+        <v>45.07198372685154</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.43013400055218</v>
+        <v>49.34020817693333</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1.926282899927354</v>
+        <v>-1.926282899925535</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.72760314355257</v>
+        <v>25.72760314357133</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.0967992341429</v>
+        <v>30.09679923409049</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.409624844228961</v>
+        <v>7.409624844237602</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.55762153207666</v>
+        <v>16.55762153205881</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.63746085608959</v>
+        <v>20.63746085609016</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15.35378950156762</v>
+        <v>15.35378950153306</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.54030250645012</v>
+        <v>22.54030250645922</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.13730265201723</v>
+        <v>25.13730265197835</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.36926015580928</v>
+        <v>27.36926015582769</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33.59224095495942</v>
+        <v>33.59224095499933</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.42873706594314</v>
+        <v>35.42873706596122</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.71805292700462</v>
+        <v>16.71805292697211</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.29235976848206</v>
+        <v>32.2923597684392</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.56001017964802</v>
+        <v>36.56001017963062</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.260206355872629</v>
+        <v>3.260206355851711</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.91676218215928</v>
+        <v>30.91676218214507</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.28644189181016</v>
+        <v>35.28644189179504</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.59623251589044</v>
+        <v>12.59623251592886</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.74612963986037</v>
+        <v>21.74612963984878</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.82624538634336</v>
+        <v>25.8262453863952</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20.54188845821789</v>
+        <v>20.54188845816786</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.72979566085091</v>
+        <v>27.72979566084557</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30.32697841468671</v>
+        <v>30.32697841474253</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.55983215958865</v>
+        <v>32.55983215957433</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.78368938565568</v>
+        <v>38.78368938570775</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>40.62038083025895</v>
+        <v>40.62038083034285</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.90780786066869</v>
+        <v>21.90780786067255</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>37.48398496645738</v>
+        <v>37.4839849664658</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.75216479734961</v>
+        <v>41.75216479734256</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>9.908490066005175</v>
+        <v>9.908490066070886</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.56470642560923</v>
+        <v>37.56470642559582</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41.93446167855397</v>
+        <v>41.93446167854692</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19.24489848892238</v>
+        <v>19.24489848892829</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.39497208685787</v>
+        <v>28.39497208687878</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>32.47515857948763</v>
+        <v>32.47515857946398</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.19073246871828</v>
+        <v>27.19073246870009</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.37878048482746</v>
+        <v>34.37878048486623</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36.97600067004366</v>
+        <v>36.97600067005219</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>39.20924180073841</v>
+        <v>39.20924180076024</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>45.43310487469107</v>
+        <v>45.43310487466674</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>47.26983607428819</v>
+        <v>47.26983607430616</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.55736297229435</v>
+        <v>28.55736297222795</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>44.13349736996433</v>
+        <v>44.13349736995012</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>48.4018079949888</v>
+        <v>48.40180799497755</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-3.196020785553923</v>
+        <v>-3.196020785498103</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.45834104938972</v>
+        <v>24.45834104938085</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.82740405886857</v>
+        <v>28.82740405882514</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.13997947548221</v>
+        <v>6.139979475489941</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>15.28832665054374</v>
+        <v>15.28832665053294</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>19.36800616078158</v>
+        <v>19.36800616078169</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.0841470044101</v>
+        <v>14.08414700445921</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>21.2709492377184</v>
+        <v>21.27094923776388</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>23.86782705549688</v>
+        <v>23.86782705555327</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26.09965073488904</v>
+        <v>26.09965073480287</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.32278368671386</v>
+        <v>32.32278368660461</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>34.15919587019521</v>
+        <v>34.15919587009618</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.44822317147343</v>
+        <v>15.44822317143705</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.02298543229147</v>
+        <v>31.02298543228806</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.29041122424012</v>
+        <v>35.29041122424285</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.990642288968434</v>
+        <v>1.990642289001631</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.647673939007</v>
+        <v>29.64767393893526</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.01722055117595</v>
+        <v>34.01722055117652</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>11.326760989644</v>
+        <v>11.32676098967834</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>20.47700861640469</v>
+        <v>20.47700861645449</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.55696452861212</v>
+        <v>24.55696452859484</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>19.2724198227533</v>
+        <v>19.27241982264325</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.46061626677879</v>
+        <v>26.46061626670705</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.05767667628929</v>
+        <v>29.05767667624939</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.29039661310496</v>
+        <v>31.29039661307995</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>37.51440599957361</v>
+        <v>37.51440599952802</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>39.35101350802726</v>
+        <v>39.35101350801942</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20.63815197580145</v>
+        <v>20.63815197576712</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.21478452987371</v>
+        <v>36.21478452985188</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.48273971730218</v>
+        <v>40.48273971729695</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>8.63917372861572</v>
+        <v>8.639173728648689</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.29586590499871</v>
+        <v>36.29586590493857</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.66548806094356</v>
+        <v>40.66548806090729</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>17.9756746805637</v>
+        <v>17.97567468062487</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27.1260987722241</v>
+        <v>27.12609877227162</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>31.20612543146733</v>
+        <v>31.20612543150826</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.92151156923403</v>
+        <v>25.92151156916946</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.10984882099983</v>
+        <v>33.10984882096356</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>35.70694666175932</v>
+        <v>35.70694666171214</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>37.94005398975143</v>
+        <v>37.94005398978895</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>44.164069219415</v>
+        <v>44.16406921945251</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>46.00071648607393</v>
+        <v>46.00071648612054</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.28795482714775</v>
+        <v>27.28795482711773</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.86454466162745</v>
+        <v>42.86454466165848</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>47.1326306483757</v>
+        <v>47.13263064840037</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-3.362336910948965</v>
+        <v>-3.362336910917133</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.29203296839733</v>
+        <v>24.29203296843405</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.66109211653979</v>
+        <v>28.66109211655355</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.973655984219864</v>
+        <v>5.973655984179846</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>15.12200282577571</v>
+        <v>15.12200282583779</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>19.20168699126764</v>
+        <v>19.20168699125331</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>13.91782597318836</v>
+        <v>13.91782597320655</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>21.10462942764473</v>
+        <v>21.10462942768475</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>23.70150793838086</v>
+        <v>23.70150793838814</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.93335403574126</v>
+        <v>25.93335403568397</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.15648609008694</v>
+        <v>32.15648609008785</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.99289820432914</v>
+        <v>33.99289820430367</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.28193249247072</v>
+        <v>15.28193249237409</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.85669087813749</v>
+        <v>30.8566908781085</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>35.12411693270319</v>
+        <v>35.1241169326842</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1.824414418136644</v>
+        <v>1.824414418122092</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.48145411621993</v>
+        <v>29.4814541161192</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.8509968665898</v>
+        <v>33.85099686652454</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>11.16052576192094</v>
+        <v>11.16052576197687</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>20.31077305726778</v>
+        <v>20.31077305728279</v>
       </c>
     </row>
     <row r="112">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.10618705520317</v>
+        <v>19.10618705512632</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.29438472189831</v>
+        <v>26.29438472186546</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.89144582447425</v>
+        <v>28.89144582448005</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.12418817764562</v>
+        <v>31.12418817757468</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>37.34819666733942</v>
+        <v>37.34819666734442</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>39.18480410665966</v>
+        <v>39.18480410665761</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.47194955742309</v>
+        <v>20.47194955741582</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.04857823943659</v>
+        <v>36.04857823944751</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.31653368920608</v>
+        <v>40.31653368921359</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>8.472974286081286</v>
+        <v>8.472974286065142</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.12967451162187</v>
+        <v>36.1296745115332</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.49929280588042</v>
+        <v>40.49929280585154</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>17.80946788324416</v>
+        <v>17.80946788334716</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.9598916439325</v>
+        <v>26.95989164391817</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.03992295869175</v>
+        <v>31.03992295872267</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.75530723157674</v>
+        <v>25.75530723149989</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.94364570661257</v>
+        <v>32.94364570658313</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>35.540744240465</v>
+        <v>35.54074424042965</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>37.77387398210583</v>
+        <v>37.77387398214766</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>43.99788831582252</v>
+        <v>43.99788831581616</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>45.83453551342579</v>
+        <v>45.83453551345853</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.12178083471433</v>
+        <v>27.1217808347323</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.69836679910831</v>
+        <v>42.69836679914481</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.96645304817439</v>
+        <v>46.96645304821816</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-7.828467592492711</v>
+        <v>-7.82846759235208</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.82535058690091</v>
+        <v>19.82535058699846</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.19450432786566</v>
+        <v>24.19450432799959</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.50716046959035</v>
+        <v>1.507160469656061</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.65508168130832</v>
+        <v>10.65508168135095</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>14.73487525670821</v>
+        <v>14.73487525674448</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9.451211887339401</v>
+        <v>9.451211887395335</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>16.63766271721675</v>
+        <v>16.63766271718389</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>19.23462592055835</v>
+        <v>19.23462592059007</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.46667306094939</v>
+        <v>21.46667306094576</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.68962200415608</v>
+        <v>27.68962200417507</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.52609779618506</v>
+        <v>29.52609779622042</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>10.815590045154</v>
+        <v>10.81559004510602</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.38980402494376</v>
+        <v>26.38980402494001</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.65740321854314</v>
+        <v>30.65740321851301</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-2.641965517830453</v>
+        <v>-2.641965517864673</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.01452244229681</v>
+        <v>25.0145224422128</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.38415980312952</v>
+        <v>29.38415980317352</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.693780954824138</v>
+        <v>6.693780954765931</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>15.84360259797079</v>
+        <v>15.84360259793407</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>19.92367259367113</v>
+        <v>19.92367259364214</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>14.63932365905946</v>
+        <v>14.63932365924113</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>21.82716868255027</v>
+        <v>21.82716868249195</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>24.42431449325675</v>
+        <v>24.4243144932821</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.65725787375816</v>
+        <v>26.65725787364197</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>32.88108324188708</v>
+        <v>32.88108324200338</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.71775436679347</v>
+        <v>34.71775436688431</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.00535778863302</v>
+        <v>16.00535778860779</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.5814420292591</v>
+        <v>31.58144202922817</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.84957064114955</v>
+        <v>35.84957064108907</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4.006776497825218</v>
+        <v>4.006776497865918</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>31.66292499586875</v>
+        <v>31.66292499584886</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.0326379007452</v>
+        <v>36.03263790073781</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>13.3429052435112</v>
+        <v>13.34290524348573</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>22.49290336278755</v>
+        <v>22.49290336279119</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.57304410411762</v>
+        <v>26.57304410411375</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21.2886259976762</v>
+        <v>21.28862599767892</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.47661183648727</v>
+        <v>28.47661183644452</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>31.07379507810531</v>
+        <v>31.07379507805802</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>33.3071258342349</v>
+        <v>33.30712583418851</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>39.53095705149921</v>
+        <v>39.53095705144817</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>41.36766793142947</v>
+        <v>41.36766793146028</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.65537121020786</v>
+        <v>22.65537121018035</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>38.23141274649383</v>
+        <v>38.23141274644847</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.49967215233009</v>
+        <v>42.49967215229178</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1.846555418422145</v>
+        <v>1.846555418441927</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.5005034168775</v>
+        <v>29.50050341693991</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>33.86964224810428</v>
+        <v>33.8696422481501</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>11.18259526849913</v>
+        <v>11.18259526855143</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20.33067598518805</v>
+        <v>20.33067598520659</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.41046226972917</v>
+        <v>24.41046226979522</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.12682705272407</v>
+        <v>19.1268270527368</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.31340241509536</v>
+        <v>26.31340241507171</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.91035999410945</v>
+        <v>28.91035999420153</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.14225015143045</v>
+        <v>31.14225015137611</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>37.36526573540964</v>
+        <v>37.36526573538406</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.20173450438874</v>
+        <v>39.20173450433406</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.49095669162141</v>
+        <v>20.49095669161072</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.06537352091611</v>
+        <v>36.06537352086234</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>40.33295138299938</v>
+        <v>40.3329513830402</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>7.033837173620828</v>
+        <v>7.033837173669031</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.6904549523728</v>
+        <v>34.69045495240225</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>39.06007739377257</v>
+        <v>39.06007739378292</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16.36999546482518</v>
+        <v>16.3699954648054</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.51997661373644</v>
+        <v>25.5199766137685</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.60003931084139</v>
+        <v>29.60003931086048</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>24.31571854644442</v>
+        <v>24.31571854637984</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>31.50368810464174</v>
+        <v>31.50368810456364</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.10082828425202</v>
+        <v>34.10082828428601</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.33361467414095</v>
+        <v>36.33361467415573</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>42.55750668385103</v>
+        <v>42.55750668387036</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>44.3941707810291</v>
+        <v>44.39417078104752</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.68150413597657</v>
+        <v>25.68150413598044</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>41.25779122855299</v>
+        <v>41.2577912285614</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>45.52589849695657</v>
+        <v>45.52589849691678</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>13.68200794591364</v>
+        <v>13.68200794590659</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>41.33828625360654</v>
+        <v>41.3382862535713</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>45.70798423990452</v>
+        <v>45.70798423990475</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>23.01854848721898</v>
+        <v>23.01854848723581</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>32.16870610476614</v>
+        <v>32.1687061047616</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.24883954898921</v>
+        <v>36.24883954901649</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.96444960536444</v>
+        <v>30.96444960532078</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.15255997302522</v>
+        <v>38.15255997304216</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>40.74973758428875</v>
+        <v>40.74973758430455</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>42.98291135696552</v>
+        <v>42.9829113569255</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>49.2068092123457</v>
+        <v>49.20680921231046</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>51.04351306496874</v>
+        <v>51.0435130649867</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.33094629309328</v>
+        <v>32.33094629303416</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>47.90719066907813</v>
+        <v>47.90719066909303</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>52.17542873318921</v>
+        <v>52.17542873318887</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.8083159447195847</v>
+        <v>0.8083159447659689</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.46215722240634</v>
+        <v>28.46215722238906</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>32.83113283415643</v>
+        <v>32.83113283418918</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.14435502411782</v>
+        <v>10.144355024111</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>19.29250403076007</v>
+        <v>19.29250403083295</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.37212264461145</v>
+        <v>23.37212264460429</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>18.08843032702605</v>
+        <v>18.08843032705129</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.27507939952959</v>
+        <v>25.27507939956597</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.87191023859571</v>
+        <v>27.87191023862481</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>30.10369909654735</v>
+        <v>30.1036990965262</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>36.32672184246216</v>
+        <v>36.3267218424832</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>38.163104149646</v>
+        <v>38.16310414967886</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>19.45241451290274</v>
+        <v>19.45241451285886</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.02690595228073</v>
+        <v>35.02690595232063</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>39.29426251500904</v>
+        <v>39.29426251496504</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5.995906906379492</v>
+        <v>5.995906906376991</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.6524179481426</v>
+        <v>33.65241794815738</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>38.02187714882261</v>
+        <v>38.02187714887354</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>15.33206445355329</v>
+        <v>15.33206445360104</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>24.4821138763263</v>
+        <v>24.48211387637746</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.562008881822</v>
+        <v>28.56200888184428</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>23.27763104978742</v>
+        <v>23.27763104982471</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>30.46567430692396</v>
+        <v>30.46567430695307</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.0626877297904</v>
+        <v>33.06268772980131</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>35.29537281826667</v>
+        <v>35.29537281830692</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>41.51927198324658</v>
+        <v>41.5192719831894</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>43.35584960906264</v>
+        <v>43.35584960901637</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.64327116400084</v>
+        <v>24.64327116401926</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>40.21963285856525</v>
+        <v>40.21963285858048</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>44.48751880100478</v>
+        <v>44.48751880100637</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>12.64420258394164</v>
+        <v>12.64420258394255</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.30037415583631</v>
+        <v>40.30037415578344</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.66990890123354</v>
+        <v>44.66990890120091</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>21.98074236870996</v>
+        <v>21.98074236874293</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>31.13096825305904</v>
+        <v>31.13096825306632</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.21093400639113</v>
+        <v>35.21093400640613</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.92648701418323</v>
+        <v>29.926487014183</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>37.11467107593687</v>
+        <v>37.11467107593334</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>39.71172193045747</v>
+        <v>39.71172193050488</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>41.94479440068828</v>
+        <v>41.94479440067441</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>48.1686994083871</v>
+        <v>48.16869940840267</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>50.00531679177406</v>
+        <v>50.00531679171961</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31.2928382212405</v>
+        <v>31.29283822124096</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>46.86915719098288</v>
+        <v>46.86915719100107</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>51.13717393205893</v>
+        <v>51.13717393207007</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-4.502352994746797</v>
+        <v>-4.502352994682223</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.15147116329574</v>
+        <v>23.15147116326391</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.5205627600348</v>
+        <v>27.52056276000205</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>4.833386316231032</v>
+        <v>4.833386316202382</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.9814065584324</v>
+        <v>13.9814065584216</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.06114151345269</v>
+        <v>18.06114151343825</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>12.77745189327577</v>
+        <v>12.77745189326827</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.9640000663316</v>
+        <v>19.96400006633523</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.56092618477935</v>
+        <v>22.56092618483756</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.79280640610493</v>
+        <v>24.79280640616382</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.01577337356462</v>
+        <v>31.01577337353836</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.85221597621994</v>
+        <v>32.85221597624188</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>14.14164877312867</v>
+        <v>14.14164877307751</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.71595956032711</v>
+        <v>29.71595956030881</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>33.98347209407716</v>
+        <v>33.98347209405135</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.6838419879556348</v>
+        <v>0.6838419879713236</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.34033593101463</v>
+        <v>28.3403359310294</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.70991113700534</v>
+        <v>32.70991113701625</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>10.0196997127686</v>
+        <v>10.01969971273268</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>19.16962039017828</v>
+        <v>19.16962039018579</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>23.24963175825967</v>
+        <v>23.24963175827832</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>17.9652565667647</v>
+        <v>17.9652565667365</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.15319893790677</v>
+        <v>25.15319893788494</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>27.75030765800277</v>
+        <v>27.75030765799913</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.98308411772557</v>
+        <v>29.98308411771125</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>36.20692751018389</v>
+        <v>36.20692751021765</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>38.04356544307295</v>
+        <v>38.04356544311399</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>19.33110942093474</v>
+        <v>19.33110942088404</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>34.90729047905749</v>
+        <v>34.90729047904362</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>39.17533242006554</v>
+        <v>39.1753324200926</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>7.332320567485272</v>
+        <v>7.332320567522562</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.988475050502</v>
+        <v>34.98847505050007</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>39.35812579612404</v>
+        <v>39.35812579611688</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>16.66856055446003</v>
+        <v>16.66856055449664</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.81865770579309</v>
+        <v>25.818657705804</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.89873981659223</v>
+        <v>29.89873981661815</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>24.61429545739695</v>
+        <v>24.6142954573749</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.80237864252756</v>
+        <v>31.8023786424731</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>34.39952479172022</v>
+        <v>34.39952479168396</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>36.63268863839259</v>
+        <v>36.63268863836417</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>42.85653787878304</v>
+        <v>42.85653787879134</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>44.69321556682011</v>
+        <v>44.69321556679476</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.98085940810704</v>
+        <v>25.98085940804201</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>41.55699776183501</v>
+        <v>41.55699776180954</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>45.82517049469838</v>
+        <v>45.82517049466587</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-1.354023750794408</v>
+        <v>-1.354023750783949</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.30016070989818</v>
+        <v>26.30016070998527</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.66932250219547</v>
+        <v>30.66932250219479</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>7.981980459878901</v>
+        <v>7.98198045992233</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>17.1301252102973</v>
+        <v>17.13012521036687</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.20992896826936</v>
+        <v>21.20992896829164</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>15.92621579801737</v>
+        <v>15.9262157980824</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>23.11284308395925</v>
+        <v>23.11284308399165</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.7098094639653</v>
+        <v>25.70980946397633</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.94175515245404</v>
+        <v>27.94175515240675</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.16481761562902</v>
+        <v>34.16481761564198</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>36.00129402761256</v>
+        <v>36.00129402757391</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>17.29041741643498</v>
+        <v>17.29041741644521</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>32.8649484611871</v>
+        <v>32.86494846121779</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>37.1325413929391</v>
+        <v>37.13254139292796</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>3.833054917928781</v>
+        <v>3.833054917933783</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>31.48990918296186</v>
+        <v>31.48990918293059</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>35.8595545900228</v>
+        <v>35.85955459005611</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>13.16917756355513</v>
+        <v>13.16917756358969</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.31922276244761</v>
+        <v>22.31922276249525</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.39930293453192</v>
+        <v>26.39930293455386</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>21.11490420920875</v>
+        <v>21.11490420921807</v>
       </c>
     </row>
     <row r="339">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>30.90007468373556</v>
+        <v>30.90007468381514</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.13291661718146</v>
+        <v>33.13291661719624</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.35685551354884</v>
+        <v>39.35685551354111</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>41.19352725524315</v>
+        <v>41.19352725525043</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>22.48076179899288</v>
+        <v>22.48076179901107</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.05716312325164</v>
+        <v>38.05716312326437</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>42.32528546592646</v>
+        <v>42.32528546586643</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.48147797709605</v>
+        <v>10.48147797714062</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>38.13799276981995</v>
+        <v>38.13799276979266</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.50771372221475</v>
+        <v>42.50771372217473</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.81798288166003</v>
+        <v>19.81798288170028</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.96820455112702</v>
+        <v>28.96820455116408</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.04835547071961</v>
+        <v>33.04835547081852</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.76388757081616</v>
+        <v>27.76388757082616</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.95204987533093</v>
+        <v>34.95204987529546</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>37.54923628866577</v>
+        <v>37.5492362886403</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>39.78246560614723</v>
+        <v>39.78246560612176</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>46.00641034880339</v>
+        <v>46.00641034883601</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>47.84312184656521</v>
+        <v>47.84312184661967</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.13045625995112</v>
+        <v>29.13045625992929</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>44.70681486934409</v>
+        <v>44.70681486932942</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>48.97506800892897</v>
+        <v>48.97506800887793</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5.625421885290894</v>
+        <v>5.625421885323181</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>33.27961521888305</v>
+        <v>33.27961521886395</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>37.64865928041858</v>
+        <v>37.6486592804013</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>14.96175647948023</v>
+        <v>14.96175647944522</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>24.11007617154762</v>
+        <v>24.11007617159287</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.18976387759965</v>
+        <v>28.18976387763125</v>
       </c>
     </row>
     <row r="368">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.09281150683175</v>
+        <v>30.09281150690542</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.68969143910742</v>
+        <v>32.68969143921429</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>34.92142279839179</v>
+        <v>34.92142279839656</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>41.14453488736881</v>
+        <v>41.14453488742724</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>42.98094554326171</v>
+        <v>42.98094554324989</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.2699292864974</v>
+        <v>24.26992928656289</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>39.84466354276633</v>
+        <v>39.84466354283909</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>44.11208803576237</v>
+        <v>44.11208803578624</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.81223548619407</v>
+        <v>10.81223548625183</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.46909861184706</v>
+        <v>38.46909861185331</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>42.83862626500029</v>
+        <v>42.83862626497402</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>20.14868852346665</v>
+        <v>20.14868852353782</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.29890865667248</v>
+        <v>29.29890865673456</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>33.37887275670873</v>
+        <v>33.37887275678536</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.09444611070733</v>
+        <v>28.0944461107021</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.28262904663011</v>
+        <v>35.28262904671583</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>37.87969156381364</v>
+        <v>37.8796915638175</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>40.112319173741</v>
+        <v>40.11231917381762</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>46.33630769078904</v>
+        <v>46.3363076908219</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>48.17291366735712</v>
+        <v>48.17291366741999</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.46000859431745</v>
+        <v>29.46000859446388</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>45.03661312751471</v>
+        <v>45.03661312767126</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>49.30456700446614</v>
+        <v>49.3045670046145</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>17.46013674388375</v>
+        <v>17.46013674395128</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.11666039400238</v>
+        <v>45.11666039403626</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>49.48626358832648</v>
+        <v>49.4862635883549</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.79697201137281</v>
+        <v>26.79697201146239</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.94736860770438</v>
+        <v>35.94736860773598</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>40.02740345325189</v>
+        <v>40.02740345338991</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.74290763859692</v>
+        <v>34.74290763858077</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>41.93123137953494</v>
+        <v>41.93123137955313</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>44.528331326643</v>
+        <v>44.52833132666233</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>46.76134633437725</v>
+        <v>46.76134633445047</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>52.98534069346549</v>
+        <v>52.98534069353575</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>54.82198642673318</v>
+        <v>54.82198642666428</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>36.10918123989988</v>
+        <v>36.109181240057</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>51.68574304684653</v>
+        <v>51.68574304696624</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>55.95382772081216</v>
+        <v>55.95382772094392</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-7.641902103655138</v>
+        <v>-7.641902103592951</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.01160183899986</v>
+        <v>20.01160183898155</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.38058579183023</v>
+        <v>24.38058579181534</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1.693472541339293</v>
+        <v>1.693472541426832</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>10.84151160872846</v>
+        <v>10.84151160874767</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>14.92111014382742</v>
+        <v>14.92111014378365</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>9.63738897417868</v>
+        <v>9.637388974211877</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>16.82394055945024</v>
+        <v>16.82394055948355</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>19.42077944559678</v>
+        <v>19.42077944562736</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>21.65259300215114</v>
+        <v>21.6525930021259</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.87550980607266</v>
+        <v>27.87550980604799</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.71189346773308</v>
+        <v>29.71189346776275</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>11.0015744931133</v>
+        <v>11.00157449312058</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.57575911166616</v>
+        <v>26.57575911161887</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>30.84312783479384</v>
+        <v>30.84312783480111</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-2.455714375082447</v>
+        <v>-2.455714375034699</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.20045931819384</v>
+        <v>25.2004593182176</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.56992687553855</v>
+        <v>29.56992687555185</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>6.879778703508851</v>
+        <v>6.879778703564558</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>16.02971817589496</v>
+        <v>16.0297181758687</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.10959312283039</v>
+        <v>20.10959312288917</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>14.8251863898128</v>
+        <v>14.82518638982303</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>22.01313215249563</v>
+        <v>22.01313215252587</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.61015364026268</v>
+        <v>24.61015364031202</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.8428634212368</v>
+        <v>26.84286342125931</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.06665663838798</v>
+        <v>33.066656638384</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.90323562739995</v>
+        <v>34.9032356274369</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.1910278580239</v>
+        <v>16.19102785804937</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>31.76708272710623</v>
+        <v>31.76708272710566</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>36.03498085061203</v>
+        <v>36.03498085065557</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.192860945943199</v>
+        <v>4.192860945977532</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.84869518122075</v>
+        <v>31.84869518118903</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.21823827973974</v>
+        <v>36.21823827970347</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>13.52873628568675</v>
+        <v>13.52873628579589</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.67885222110549</v>
+        <v>22.67885222114062</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.75879791190987</v>
+        <v>26.7587979118736</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>21.47432202197972</v>
+        <v>21.4743220220086</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.6624085917595</v>
+        <v>28.66240859180532</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>31.25946751025031</v>
+        <v>31.25946751030613</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>33.49256466528975</v>
+        <v>33.49256466523813</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>39.71636372817629</v>
+        <v>39.71636372815276</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>41.55298247388082</v>
+        <v>41.55298247385069</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.84087456330478</v>
+        <v>22.84087456331524</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>38.41688672668231</v>
+        <v>38.41688672667014</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>42.68491564438015</v>
+        <v>42.68491564439346</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-3.837815444175089</v>
+        <v>-3.837815444080956</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.81607482992597</v>
+        <v>23.81607482998395</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.18503060254027</v>
+        <v>28.18503060265828</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>5.497924688317358</v>
+        <v>5.497924688301215</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>14.64612744079607</v>
+        <v>14.64612744086871</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>18.72568833096937</v>
+        <v>18.72568833100381</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.44194137705488</v>
+        <v>13.44194137715106</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.62862692868764</v>
+        <v>20.62862692881429</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.22542231335449</v>
+        <v>23.22542231340087</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.45718676027234</v>
+        <v>25.45718676030804</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.68022051346661</v>
+        <v>31.68022051341864</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>33.51658277709912</v>
+        <v>33.51658277714277</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>14.80593291524376</v>
+        <v>14.80593291530743</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.38043879984257</v>
+        <v>30.38043879986599</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.64774644193226</v>
+        <v>34.64774644198114</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>1.349299060758018</v>
+        <v>1.34929906083828</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.00585910645502</v>
+        <v>29.00585910653256</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.37529847648527</v>
+        <v>33.37529847650414</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>10.68515765425393</v>
+        <v>10.68515765431578</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>19.83526082238818</v>
+        <v>19.83526082240819</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.91509811210976</v>
+        <v>23.91509811212841</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>18.63066562940087</v>
+        <v>18.63066562931265</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.81874536593039</v>
+        <v>25.81874536595267</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.4157233410778</v>
+        <v>28.41572334109621</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.64838402343269</v>
+        <v>30.6483840233929</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>36.8722941964234</v>
+        <v>36.87229419640146</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>38.70885178212829</v>
+        <v>38.70885178210976</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>19.99631311279238</v>
+        <v>19.99631311285809</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>35.57268925900136</v>
+        <v>35.57268925900921</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>39.8405262887624</v>
+        <v>39.84052628876638</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>7.997882214331799</v>
+        <v>7.997882214406378</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>35.65410279213818</v>
+        <v>35.65410279214557</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.02361770794748</v>
+        <v>40.02361770796942</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>17.33412305433687</v>
+        <v>17.3341230543728</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.48440268206439</v>
+        <v>26.48440268208622</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.56431072032926</v>
+        <v>30.56431072036201</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.27980908705279</v>
+        <v>25.2798090870014</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>32.46802962772465</v>
+        <v>32.46802962778604</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>35.06504503536546</v>
+        <v>35.06504503538137</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>37.29809309672707</v>
+        <v>37.29809309670752</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>43.52200911261325</v>
+        <v>43.52200911263633</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>45.35860645713301</v>
+        <v>45.35860645710902</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.64616765592284</v>
+        <v>26.64616765588373</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>42.22250108197925</v>
+        <v>42.22250108196106</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>46.49046891202322</v>
+        <v>46.49046891199752</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-6.704029822286611</v>
+        <v>-6.704029822208394</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.94970783632998</v>
+        <v>20.94970783629065</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.31867867845522</v>
+        <v>25.3186786784634</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>2.631497584414934</v>
+        <v>2.631497584374916</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>11.77957994192564</v>
+        <v>11.77957994190222</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>15.85917863095658</v>
+        <v>15.85917863091656</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>10.57547124215164</v>
+        <v>10.5754712421048</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>17.76206539328796</v>
+        <v>17.76206539327022</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.35889122512508</v>
+        <v>20.35889122515055</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.59073200848995</v>
+        <v>22.59073200850905</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.81369723421669</v>
+        <v>28.81369723422761</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.65007319718318</v>
+        <v>30.65007319720546</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>11.93963555992257</v>
+        <v>11.93963555984594</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.51395767370791</v>
+        <v>27.51395767372258</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>31.78130249126439</v>
+        <v>31.7813024912354</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-1.517689411606352</v>
+        <v>-1.517689411546439</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.1387180185905</v>
+        <v>26.13871801857708</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>30.50817245983517</v>
+        <v>30.50817245983471</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>7.817956421338682</v>
+        <v>7.817956421300483</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>16.96793919664065</v>
+        <v>16.96793919657812</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.04781428879783</v>
+        <v>21.04781428876713</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>15.76342135020711</v>
+        <v>15.76342135011253</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.95140968727826</v>
+        <v>22.95140968729133</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.54841811290014</v>
+        <v>25.54841811287342</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.78115512462357</v>
+        <v>27.78115512461675</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.00499676952352</v>
+        <v>34.0049967694661</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.84156805669538</v>
+        <v>35.84156805665343</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.12924161321796</v>
+        <v>17.12924161322615</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.7054339913032</v>
+        <v>32.7054339912642</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.97330820147208</v>
+        <v>36.97330820143627</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.131023365222678</v>
+        <v>5.131023365293391</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.78709133711861</v>
+        <v>32.78709133710474</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.15662131967945</v>
+        <v>37.15662131967467</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>14.46705145601543</v>
+        <v>14.46705145594995</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>23.61721069752371</v>
+        <v>23.61721069752848</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>27.69715653348571</v>
+        <v>27.697156533513</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>22.41269444322659</v>
+        <v>22.41269444316861</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.60082358987829</v>
+        <v>29.60082358992263</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>32.19786944530487</v>
+        <v>32.19786944529328</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.43099383023234</v>
+        <v>34.43099383024439</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>40.65484132120518</v>
+        <v>40.65484132122349</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>42.49145236566874</v>
+        <v>42.4914523656502</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.77922577891734</v>
+        <v>23.77922577883458</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>39.35537545009144</v>
+        <v>39.35537545009986</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>43.62338045493622</v>
+        <v>43.62338045493054</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-10.25923727645597</v>
+        <v>-10.25923727641959</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.39389591253375</v>
+        <v>17.39389591260049</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>21.76276498329507</v>
+        <v>21.76276498329269</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.924127329906991</v>
+        <v>-0.9241273299252946</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.223745466709762</v>
+        <v>8.223745466654851</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.30322435958219</v>
+        <v>12.30322435951023</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.0196179408719</v>
+        <v>7.019617940843023</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>14.20604481964522</v>
+        <v>14.20604481964829</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>16.80279021429708</v>
+        <v>16.80279021428969</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.03461086220539</v>
+        <v>19.03461086226746</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.25744116395815</v>
+        <v>25.25744116398009</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.09376951446409</v>
+        <v>27.09376951450672</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>8.383791348996898</v>
+        <v>8.383791349019862</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.9577532819548</v>
+        <v>23.95775328200505</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.22498877066748</v>
+        <v>28.22498877071296</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-5.072659067600238</v>
+        <v>-5.072659067530093</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.58314384092334</v>
+        <v>22.58314384093176</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.95249650795624</v>
+        <v>26.95249650795738</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.262569314435883</v>
+        <v>4.262569314454755</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.41234248740072</v>
+        <v>13.41234248738708</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>17.49209778302718</v>
+        <v>17.49209778308607</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>12.20780583205913</v>
+        <v>12.2078058320257</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.39562686808499</v>
+        <v>19.39562686806157</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.99255485715166</v>
+        <v>21.99255485717099</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.22527170558412</v>
+        <v>24.22527170558367</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.44897840936226</v>
+        <v>30.44897840936499</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>32.28550208233735</v>
+        <v>32.28550208233462</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>13.57363513955572</v>
+        <v>13.57363513962916</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.14946729984426</v>
+        <v>29.14946729987485</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>33.41723217674443</v>
+        <v>33.41723217678843</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>1.576237085183653</v>
+        <v>1.57623708519775</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.23170054492987</v>
+        <v>29.23170054496818</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.60112875472298</v>
+        <v>33.60112875471513</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>10.91184772573336</v>
+        <v>10.91184772571221</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>20.06179736095173</v>
+        <v>20.06179736099141</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.14162340147259</v>
+        <v>24.1416234014104</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>18.85726230652738</v>
+        <v>18.85726230647713</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.0452241492706</v>
+        <v>26.04522414928254</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.6421895691763</v>
+        <v>28.64218956919369</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.87529377549156</v>
+        <v>30.87529377551089</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>37.09900632570286</v>
+        <v>37.09900632571548</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>38.93556975621861</v>
+        <v>38.93556975628512</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.22380265958343</v>
+        <v>20.22380265961731</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.7995921160056</v>
+        <v>35.79959211602458</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>40.06748778749754</v>
+        <v>40.06748778750516</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-4.282326196097824</v>
+        <v>-4.282326196040071</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.37183432380566</v>
+        <v>23.37183432379816</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.74105077247446</v>
+        <v>27.74105077249196</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>5.053570219422614</v>
+        <v>5.05357021945149</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>14.20164858661581</v>
+        <v>14.201648586649</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>18.28150449645834</v>
+        <v>18.2815044964879</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.99776933704736</v>
+        <v>12.99776933703236</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.18434743033804</v>
+        <v>20.18434743038499</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>22.78135461210632</v>
+        <v>22.78135461208824</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.013352308769</v>
+        <v>25.01335230868169</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.23638929168594</v>
+        <v>31.23638929164069</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.07289179297975</v>
+        <v>33.07289179289744</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>14.3620749011124</v>
+        <v>14.36207490115537</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.9365231824542</v>
+        <v>29.93652318253946</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>34.20418619275567</v>
+        <v>34.20418619276272</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>0.9039579252773144</v>
+        <v>0.9039579252677648</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.56078825450168</v>
+        <v>28.56078825444495</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.93048832643971</v>
+        <v>32.93048832643665</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>10.23997274780384</v>
+        <v>10.23997274785295</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.38995156893172</v>
+        <v>19.38995156895026</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.47008390264721</v>
+        <v>23.47008390266187</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>18.18566316183699</v>
+        <v>18.18566316185359</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.37363546546435</v>
+        <v>25.37363546545707</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.97082525628689</v>
+        <v>27.97082525629371</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.20371920735458</v>
+        <v>30.2037192074203</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>36.42763262488272</v>
+        <v>36.42763262492228</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>38.26433046118056</v>
+        <v>38.26433046124968</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.55162472565569</v>
+        <v>19.55162472561931</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>35.12794328924717</v>
+        <v>35.12794328924899</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>39.39613572291334</v>
+        <v>39.39613572294427</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>7.552475306553948</v>
+        <v>7.552475306620341</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.20896616803479</v>
+        <v>35.20896616803297</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>39.57874178341494</v>
+        <v>39.5787417834586</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>16.88887239884109</v>
+        <v>16.88887239886315</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>26.03902769644064</v>
+        <v>26.03902769647771</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.1192307760346</v>
+        <v>30.1192307760462</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.83474085806113</v>
+        <v>24.83474085806386</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.02285397743712</v>
+        <v>32.02285397745258</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>34.6200811993845</v>
+        <v>34.62008119947545</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>36.85336253688517</v>
+        <v>36.85336253695066</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>43.07728180284123</v>
+        <v>43.07728180291387</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>44.91401939451536</v>
+        <v>44.91401939452616</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.20141352410103</v>
+        <v>26.20141352416652</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>41.77768938155059</v>
+        <v>41.77768938154684</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>46.0460126097767</v>
+        <v>46.04601260980932</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-5.391305246721412</v>
+        <v>-5.391305246676392</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.26238806858457</v>
+        <v>22.26238806863562</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.6313573746542</v>
+        <v>26.6313573746982</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>3.944281684167823</v>
+        <v>3.94428168418624</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>13.09241830790784</v>
+        <v>13.09241830788158</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.17199321300977</v>
+        <v>17.1719932129942</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.88824417975768</v>
+        <v>11.88824417975291</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.07487357350242</v>
+        <v>19.07487357353118</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.67168988141389</v>
+        <v>21.67168988145038</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>23.90346279334806</v>
+        <v>23.90346279332828</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.12643923434227</v>
+        <v>30.12643923441606</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.96280908747888</v>
+        <v>31.96280908749445</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>13.25232953094831</v>
+        <v>13.25232953094808</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.82668295167052</v>
+        <v>28.82668295169633</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>33.09401146620341</v>
+        <v>33.09401146628083</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-0.2049335440068027</v>
+        <v>-0.2049335439844064</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.45142952816018</v>
+        <v>27.45142952812471</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.82088243225876</v>
+        <v>31.82088243225512</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.130771824384443</v>
+        <v>9.130771824399904</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>18.28080885545437</v>
+        <v>18.28080885549041</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>22.3606601637428</v>
+        <v>22.36066016376951</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>17.07622558390692</v>
+        <v>17.07622558383871</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>24.26424915622413</v>
+        <v>24.26424915627517</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.8612480580761</v>
+        <v>26.86124805808736</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.09391720276988</v>
+        <v>29.09391720280285</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.31777005867086</v>
+        <v>35.31777005866108</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>37.15433523538165</v>
+        <v>37.15433523542735</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>18.44196688459731</v>
+        <v>18.44196688464119</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.01819055892808</v>
+        <v>34.01819055893183</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.28604846451451</v>
+        <v>38.28604846457146</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>6.443596334855261</v>
+        <v>6.443596334875497</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>34.09961994403345</v>
+        <v>34.09961994403186</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.46914839061394</v>
+        <v>38.46914839058029</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>15.77968395396322</v>
+        <v>15.77968395394207</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.92989744560787</v>
+        <v>24.92989744566755</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.00981949926431</v>
+        <v>29.00981949925806</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>23.72531576706722</v>
+        <v>23.72531576707449</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>30.91348014455757</v>
+        <v>30.91348014458702</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>33.51051647709896</v>
+        <v>33.51051647713545</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>35.74357299865248</v>
+        <v>35.74357299872933</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>41.96743169884807</v>
+        <v>41.96743169882272</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>43.80403663277188</v>
+        <v>43.80403663280156</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.09176814599862</v>
+        <v>25.09176814608297</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>40.66794910764092</v>
+        <v>40.6679491076781</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>44.93593780946689</v>
+        <v>44.93593780952794</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>5.568578554626516</v>
+        <v>5.568578554663578</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.22299657006606</v>
+        <v>33.22299657011051</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>37.59220705529292</v>
+        <v>37.59220705528871</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>14.90496138727751</v>
+        <v>14.90496138725478</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>24.05324635886057</v>
+        <v>24.05324635888057</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.13310488293012</v>
+        <v>28.13310488294467</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>22.84936911956258</v>
+        <v>22.84936911959692</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>30.03610951129365</v>
+        <v>30.03610951127114</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>32.63311513757951</v>
+        <v>32.63311513757928</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.86496786331706</v>
+        <v>34.86496786329842</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.08810229968064</v>
+        <v>41.08810229968019</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.92460150892195</v>
+        <v>42.92460150893901</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.21342788125246</v>
+        <v>24.21342788124132</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.78816117982539</v>
+        <v>39.78816117988713</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>44.05580914583986</v>
+        <v>44.0558091458402</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>10.75539931053816</v>
+        <v>10.75539931065434</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>38.412487143174</v>
+        <v>38.41248714319595</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>42.78218124193329</v>
+        <v>42.78218124202435</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>20.09190057214953</v>
+        <v>20.09190057214225</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.24208600505851</v>
+        <v>29.24208600509853</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.3222209428606</v>
+        <v>33.32222094280966</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.03779961269122</v>
+        <v>28.03779961271919</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.22593422094216</v>
+        <v>35.22593422090499</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>37.82312244780353</v>
+        <v>37.82312244786139</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>40.05587142934876</v>
+        <v>40.05587142942515</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>46.27988230409271</v>
+        <v>46.27988230412898</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>48.11657684319896</v>
+        <v>48.11657684327888</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.40351436552776</v>
+        <v>29.40351436557141</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>44.98011795387531</v>
+        <v>44.98011795386792</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>49.24829533065501</v>
+        <v>49.24829533065171</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>17.40335649577144</v>
+        <v>17.40335649582055</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>45.06010484968515</v>
+        <v>45.0601048496374</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>49.4298744918829</v>
+        <v>49.42987449190836</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.74024000308025</v>
+        <v>26.74024000307593</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.89060190579691</v>
+        <v>35.89060190586046</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.97080759042835</v>
+        <v>39.97080759044461</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>34.68631707614934</v>
+        <v>34.68631707618731</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.87459249483258</v>
+        <v>41.87459249486089</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.47181815274421</v>
+        <v>44.47181815278161</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.70495453080359</v>
+        <v>46.70495453085611</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>52.92897125027439</v>
+        <v>52.9289712503343</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>54.76570554491018</v>
+        <v>54.76570554494189</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>36.05274295024871</v>
+        <v>36.05274295025235</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>51.62930381880771</v>
+        <v>51.62930381887263</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>55.89761199170464</v>
+        <v>55.89761199171544</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-0.5301345510241156</v>
+        <v>-0.5301345510080857</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>27.12340810368066</v>
+        <v>27.12340810373535</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.49252909412796</v>
+        <v>31.49252909419993</v>
       </c>
     </row>
     <row r="725">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>17.95357400406515</v>
+        <v>17.95357400410971</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.03334641116867</v>
+        <v>22.03334641116139</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.74978723432848</v>
+        <v>16.74978723432575</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.93620923643953</v>
+        <v>23.93620923644839</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.53316180187499</v>
+        <v>26.53316180191341</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.7650895402209</v>
+        <v>28.76508954028002</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.98799589680191</v>
+        <v>34.98799589686796</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>36.82446011039853</v>
+        <v>36.82446011043434</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>18.11400523395666</v>
+        <v>18.11400523389732</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.68812966563728</v>
+        <v>33.6881296656699</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.95570036041117</v>
+        <v>37.95570036041856</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>4.656512962410194</v>
+        <v>4.656512962350394</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.31272536197928</v>
+        <v>32.3127253620476</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.68232996120121</v>
+        <v>36.68232996112469</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>13.9924559587859</v>
+        <v>13.99245595875339</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.14224033996316</v>
+        <v>23.14224033987664</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.22228916085105</v>
+        <v>27.22228916085571</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>21.93804443250922</v>
+        <v>21.93804443250444</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.12586061119548</v>
+        <v>29.12586061124198</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.72299577858705</v>
+        <v>31.72299577857989</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.95581974527128</v>
+        <v>33.95581974534018</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>40.17960251594313</v>
+        <v>40.1796025159578</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>42.01626205787038</v>
+        <v>42.01626205794325</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.30391837733957</v>
+        <v>23.30391837734367</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>38.87991304525342</v>
+        <v>38.87991304523636</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>43.14801314629487</v>
+        <v>43.14801314629919</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>11.30467049020733</v>
+        <v>11.30467049013344</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.96054342572636</v>
+        <v>38.96054342570646</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>43.33022356776557</v>
+        <v>43.33022356768747</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.64099573754122</v>
+        <v>20.64099573756669</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.79095658982947</v>
+        <v>29.79095658978763</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>33.87107615577638</v>
+        <v>33.8710761557732</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.58676224658523</v>
+        <v>28.58676224655999</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.77471923622947</v>
+        <v>35.77471923622026</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>38.3718918339553</v>
+        <v>38.37189183400271</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>40.60510317793926</v>
+        <v>40.60510317797109</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>46.82889179573117</v>
+        <v>46.82889179577118</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>48.66559109213681</v>
+        <v>48.66559109212044</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.95334727875018</v>
+        <v>29.95334727877996</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>45.52929923658387</v>
+        <v>45.52929923656852</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>49.79753012989993</v>
+        <v>49.79753012989526</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-2.433886249161286</v>
+        <v>-2.433886249113879</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.22067683088737</v>
+        <v>25.22067683088783</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.58983428922186</v>
+        <v>29.58983428925142</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>6.902156640522367</v>
+        <v>6.902156640527824</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>16.05054491192975</v>
+        <v>16.0505449119567</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>20.13031278890132</v>
+        <v>20.13031278894146</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>14.84644250622926</v>
+        <v>14.8464425061931</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.03326587068391</v>
+        <v>22.0332658707478</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>24.63020922748392</v>
+        <v>24.63020922749392</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.86207464915531</v>
+        <v>26.86207464913985</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>33.08524464569602</v>
+        <v>33.08524464575423</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>34.92170283223133</v>
+        <v>34.92170283226407</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>16.210572960384</v>
+        <v>16.21057296039924</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.78540141950753</v>
+        <v>31.78540141954584</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.05294315932342</v>
+        <v>36.05294315930307</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>2.752813796623219</v>
+        <v>2.752813796683018</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.41004671330352</v>
+        <v>30.41004671331614</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.77968778679637</v>
+        <v>34.77968778678012</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>12.08897512591391</v>
+        <v>12.08897512593505</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>21.23926386540954</v>
+        <v>21.23926386544797</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.31930815603339</v>
+        <v>25.31930815606113</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>20.03475230624388</v>
+        <v>20.03475230623251</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.22296989298438</v>
+        <v>27.22296989305169</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.82009585058886</v>
+        <v>29.8200958506498</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.05285753612218</v>
+        <v>32.05285753616265</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>38.27690397503879</v>
+        <v>38.27690397505414</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>40.11355749167824</v>
+        <v>40.11355749168517</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>21.40053876367817</v>
+        <v>21.40053876369295</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.97723753059397</v>
+        <v>36.97723753067332</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>41.24530868072149</v>
+        <v>41.24530868077356</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>9.401325051810023</v>
+        <v>9.401325051905065</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.05821849158683</v>
+        <v>37.05821849158365</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.42793511034078</v>
+        <v>41.42793511043264</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>18.73786864093124</v>
+        <v>18.73786864097899</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>27.88833384826301</v>
+        <v>27.88833384830223</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.96844888705634</v>
+        <v>31.96844888709102</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>26.68382387151921</v>
+        <v>26.68382387157742</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.87218226836778</v>
+        <v>33.87218226844088</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>36.4693456582708</v>
+        <v>36.46934565828296</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>38.70249473613437</v>
+        <v>38.70249473617712</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>44.92654701977669</v>
+        <v>44.92654701979693</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>46.76324029435379</v>
+        <v>46.76324029441655</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.05032143934629</v>
+        <v>28.05032143934402</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.62697748964676</v>
+        <v>43.62697748967314</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>47.89517943951698</v>
+        <v>47.89517943951743</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-4.825262969136201</v>
+        <v>-4.825262969094364</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.82827011533543</v>
+        <v>22.82827011538818</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.19738252231143</v>
+        <v>27.19738252231234</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>4.51038168441703</v>
+        <v>4.510381684383834</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>13.65826330583552</v>
+        <v>13.65826330583461</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>17.73802004686188</v>
+        <v>17.73802004685551</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>12.45439076373389</v>
+        <v>12.45439076371479</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.64081765548149</v>
+        <v>19.64081765556334</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.23776246107814</v>
+        <v>22.23776246112088</v>
       </c>
     </row>
     <row r="821">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.69259215787047</v>
+        <v>30.69259215784489</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.52905024499618</v>
+        <v>32.52905024501062</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>13.81865664651689</v>
+        <v>13.81865664649938</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.39275828866601</v>
+        <v>29.39275828869193</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.66031465999451</v>
+        <v>33.660314659967</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>0.3610509557568555</v>
+        <v>0.361050955727638</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.01725379602799</v>
+        <v>28.01725379607096</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>32.38684981525107</v>
+        <v>32.38684981523129</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>9.6968140248586</v>
+        <v>9.696814024822448</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>18.84659606218763</v>
+        <v>18.84659606213488</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>22.92662922214975</v>
+        <v>22.92662922217544</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>17.64231436945595</v>
+        <v>17.64231436945549</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>24.83013544388819</v>
+        <v>24.83013544394571</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>27.42726285568328</v>
+        <v>27.42726285578492</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.6600917894322</v>
+        <v>29.66009178942948</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.88386520165197</v>
+        <v>35.88386520165743</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>37.72051861992047</v>
+        <v>37.72051861995139</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>19.0082362143866</v>
+        <v>19.00823621433658</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>34.58420810285286</v>
+        <v>34.5842081029147</v>
       </c>
     </row>
     <row r="841">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>7.009441554521732</v>
+        <v>7.009441554499904</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.66530493615407</v>
+        <v>34.66530493615043</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.03497649664057</v>
+        <v>39.03497649666922</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>16.34558688899022</v>
+        <v>16.34558688895475</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.49554539983039</v>
+        <v>25.49554539989952</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.57564930391452</v>
+        <v>29.57564930398</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>24.29126527410965</v>
+        <v>24.29126527402416</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.47922716187525</v>
+        <v>31.47922716196267</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>34.076392003988</v>
+        <v>34.07639200400449</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.30960831783766</v>
+        <v>36.30960831783311</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.53338757853776</v>
+        <v>42.53338757851945</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.37008075119461</v>
+        <v>44.37008075119449</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.65789820821663</v>
+        <v>25.65789820829643</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.23382739326728</v>
+        <v>41.23382739332537</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>45.50204396809924</v>
+        <v>45.50204396815916</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-1.948869171699538</v>
+        <v>-1.948869171582327</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.7045624669302</v>
+        <v>25.70456246700558</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.07369027155828</v>
+        <v>30.07369027163638</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>7.386876958701738</v>
+        <v>7.386876958764038</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>16.53470205341471</v>
+        <v>16.53470205346598</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.61448091858954</v>
+        <v>20.61448091865514</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>15.3309243555165</v>
+        <v>15.33092435553401</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>22.51730008501413</v>
+        <v>22.51730008513714</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.11425999900807</v>
+        <v>25.11425999916746</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.34620990881028</v>
+        <v>27.34620990878755</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>33.56908422640315</v>
+        <v>33.56908422651865</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>35.40555301744614</v>
+        <v>35.4055530174716</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.69519118031433</v>
+        <v>16.6951911803016</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>32.26922588258246</v>
+        <v>32.26922588265704</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>36.53681165093319</v>
+        <v>36.5368116509341</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>3.237527809555264</v>
+        <v>3.237527809635981</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.89362918476631</v>
+        <v>30.89362918479724</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.26324060040911</v>
+        <v>35.2632406004514</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>12.57339234665749</v>
+        <v>12.5733923466152</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.72311784473395</v>
+        <v>21.7231178448108</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.80317312689049</v>
+        <v>25.80317312697848</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>20.51893100430123</v>
+        <v>20.51893100419709</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.70670090732169</v>
+        <v>27.70670090733795</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.30384342587518</v>
+        <v>30.30384342585142</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>32.53668956310814</v>
+        <v>32.53668956311678</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>38.76044029270058</v>
+        <v>38.76044029274821</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>40.59710441362556</v>
+        <v>40.59710441368138</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.88485377828413</v>
+        <v>21.88485377834643</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>37.46075871097621</v>
+        <v>37.46075871099679</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>41.72887388911583</v>
+        <v>41.72887388912368</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>9.885716699602359</v>
+        <v>9.885716699650562</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.54147861335939</v>
+        <v>37.5414786133786</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>41.91116557104185</v>
+        <v>41.91116557105288</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>19.22196349205221</v>
+        <v>19.22196349202561</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.37186546237233</v>
+        <v>28.37186546237301</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>32.45199148900126</v>
+        <v>32.45199148900149</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>27.16768018445935</v>
+        <v>27.16768018436862</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.35559089910741</v>
+        <v>34.35559089905443</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.95277084795786</v>
+        <v>36.95277084797537</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>39.1860043615831</v>
+        <v>39.18600436161994</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>45.40976093902798</v>
+        <v>45.40976093907447</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>47.24646481389929</v>
+        <v>47.24646481401378</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.53431404366363</v>
+        <v>28.53431404368296</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>44.11017626914251</v>
+        <v>44.11017626916968</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>48.37842223890873</v>
+        <v>48.37842223888224</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1.248330908966114</v>
+        <v>1.248330908936783</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.90235544841714</v>
+        <v>28.90235544839725</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.27149722785059</v>
+        <v>33.2714972278598</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>10.58444041629803</v>
+        <v>10.58444041625846</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>19.73252681955141</v>
+        <v>19.73252681949662</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>23.8123224719996</v>
+        <v>23.8123224720021</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>18.52863976312067</v>
+        <v>18.52863976311408</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.71523378024783</v>
+        <v>25.71523378026238</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.31219732466996</v>
+        <v>28.31219732466291</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>30.5440530134312</v>
+        <v>30.54405301346758</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>36.76707286606033</v>
+        <v>36.76707286605112</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>38.60353958102819</v>
+        <v>38.603539581079</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>19.89274002821815</v>
+        <v>19.89274002816608</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>35.4671842588895</v>
+        <v>35.46718425886688</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>39.7347520052114</v>
+        <v>39.7347520051931</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>6.434795484011989</v>
+        <v>6.434795484136817</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.09148981619335</v>
+        <v>34.09148981620585</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>38.46111520440688</v>
+        <v>38.46111520441757</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>15.77102341268135</v>
+        <v>15.77102341272932</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>24.92101025693994</v>
+        <v>24.9210102570119</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.00108232134828</v>
+        <v>29.00108232133293</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>23.71671404644797</v>
+        <v>23.71671404645888</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>30.9047022645721</v>
+        <v>30.90470226461666</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>33.50184840832689</v>
+        <v>33.50184840833622</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>35.73460034267571</v>
+        <v>35.73460034265501</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>41.95849662331504</v>
+        <v>41.958496623372</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>43.79515866753347</v>
+        <v>43.7951586675777</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.08247028729845</v>
+        <v>25.0824702872332</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.65878479052803</v>
+        <v>40.65878479046687</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>44.92688194271936</v>
+        <v>44.92688194264137</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>13.08296709556764</v>
+        <v>13.08296709556946</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.73932196009018</v>
+        <v>40.73932196006562</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>45.10902288923812</v>
+        <v>45.10902288925267</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>22.41957727332458</v>
+        <v>22.41957727335187</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>31.56974059108227</v>
+        <v>31.5697405910568</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>35.64988339938888</v>
+        <v>35.64988339941071</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.36544594872514</v>
+        <v>30.36544594873651</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>37.5535749796549</v>
+        <v>37.55357497964705</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>40.1507585528074</v>
+        <v>40.15075855282775</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>42.38389787720205</v>
+        <v>42.38389787719045</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>48.60780000504558</v>
+        <v>48.60780000503114</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>50.44450180438723</v>
+        <v>50.44450180437848</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>31.7319132961715</v>
+        <v>31.73191329611534</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>47.30818508879354</v>
+        <v>47.30818508877353</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>51.57641303393636</v>
+        <v>51.57641303386724</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-0.9889051808733704</v>
+        <v>-0.9889051807942444</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.66566477252825</v>
+        <v>26.66566477246754</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>31.03483774433964</v>
+        <v>31.03483774430849</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>8.347222700935777</v>
+        <v>8.347222700934413</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>17.49561126935366</v>
+        <v>17.49561126945916</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>21.57540009361462</v>
+        <v>21.57540009363827</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>16.29153397764815</v>
+        <v>16.29153397754174</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>23.47835754462567</v>
+        <v>23.4783575446284</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>26.07531577064792</v>
+        <v>26.07531577061836</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.30717381295624</v>
+        <v>28.30717381285369</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>34.53034641734182</v>
+        <v>34.53034641734898</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>36.36681405155734</v>
+        <v>36.36681405163363</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>17.65564858946907</v>
+        <v>17.65564858941473</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>33.2304836378551</v>
+        <v>33.23048363782975</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>37.49804787783005</v>
+        <v>37.49804787782629</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>4.19783437008498</v>
+        <v>4.197834370122269</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>31.85507415940065</v>
+        <v>31.85507415943032</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.22473074674581</v>
+        <v>36.2247307467532</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>13.53408069227924</v>
+        <v>13.53408069226491</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>22.68436972956515</v>
+        <v>22.68436972958721</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.76443496856318</v>
+        <v>26.76443496858524</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>21.47988328365357</v>
+        <v>21.4798832836281</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.6681010738195</v>
+        <v>28.66810107382678</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>31.2652419009891</v>
+        <v>31.26524190099001</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.49799620653555</v>
+        <v>33.49799620652873</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>39.72204525361694</v>
+        <v>39.72204525354464</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>41.55870821835906</v>
+        <v>41.55870821834473</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>22.84565389917968</v>
+        <v>22.84565389928109</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>38.42235925440973</v>
+        <v>38.42235925442792</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>42.6904529051847</v>
+        <v>42.69045290521676</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>10.84623014221386</v>
+        <v>10.84623014221568</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>38.50313045370847</v>
+        <v>38.50313045367209</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>42.87286258574993</v>
+        <v>42.8728625858527</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>20.18285872091785</v>
+        <v>20.18285872106428</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.33332422619201</v>
+        <v>29.33332422638209</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>33.41346021313397</v>
+        <v>33.41346021331724</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.12883935930693</v>
+        <v>28.12883935929783</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>35.31719795948736</v>
+        <v>35.31719795947303</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>37.91437621874336</v>
+        <v>37.91437621870357</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>40.14751791884866</v>
+        <v>40.14751791887777</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>46.37157281007232</v>
+        <v>46.37157281010506</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>48.2082755323501</v>
+        <v>48.20827553236829</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.49532108920078</v>
+        <v>29.4953210891171</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>45.07198372685154</v>
+        <v>45.07198372679606</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>49.34020817693333</v>
+        <v>49.34020817697971</v>
       </c>
     </row>
   </sheetData>
